--- a/result/Eur.genome_fraction.xlsx
+++ b/result/Eur.genome_fraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangdi/work2/HpGP-ICE/HpGP_ICE_Quast/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{477621F5-4F39-B544-AB9D-36831E4FBD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C136767-4FDE-0B4A-A040-BD07DDB846A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F370CF6C-741F-A742-BEBC-AB12F0027989}"/>
+    <workbookView xWindow="11080" yWindow="700" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F370CF6C-741F-A742-BEBC-AB12F0027989}"/>
   </bookViews>
   <sheets>
     <sheet name="Eur.genome_fraction" sheetId="1" r:id="rId1"/>
@@ -3072,7 +3072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3205,6 +3205,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3549,9 +3556,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12043,21 +12059,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1FB055-F452-0F4A-B0AF-F9FA19A61C5B}">
   <dimension ref="A1:B1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A870" workbookViewId="0">
-      <selection activeCell="G1003" sqref="G1003"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -12065,7 +12081,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
     </row>
@@ -12073,7 +12089,7 @@
       <c r="A3" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>88.228999999999999</v>
       </c>
     </row>
@@ -12081,7 +12097,7 @@
       <c r="A4" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>85.807000000000002</v>
       </c>
     </row>
@@ -12089,7 +12105,7 @@
       <c r="A5" t="s">
         <v>848</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>85.206999999999994</v>
       </c>
     </row>
@@ -12097,7 +12113,7 @@
       <c r="A6" t="s">
         <v>841</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>85.064999999999998</v>
       </c>
     </row>
@@ -12105,7 +12121,7 @@
       <c r="A7" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>85.024000000000001</v>
       </c>
     </row>
@@ -12113,7 +12129,7 @@
       <c r="A8" t="s">
         <v>336</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>84.745000000000005</v>
       </c>
     </row>
@@ -12121,7 +12137,7 @@
       <c r="A9" t="s">
         <v>508</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>84.477000000000004</v>
       </c>
     </row>
@@ -12129,7 +12145,7 @@
       <c r="A10" t="s">
         <v>369</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>84.393000000000001</v>
       </c>
     </row>
@@ -12137,7 +12153,7 @@
       <c r="A11" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>84.328000000000003</v>
       </c>
     </row>
@@ -12145,7 +12161,7 @@
       <c r="A12" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>84.245000000000005</v>
       </c>
     </row>
@@ -12153,7 +12169,7 @@
       <c r="A13" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>83.986000000000004</v>
       </c>
     </row>
@@ -12161,7 +12177,7 @@
       <c r="A14" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>83.88</v>
       </c>
     </row>
@@ -12169,7 +12185,7 @@
       <c r="A15" t="s">
         <v>855</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>83.832999999999998</v>
       </c>
     </row>
@@ -12177,7 +12193,7 @@
       <c r="A16" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>83.825999999999993</v>
       </c>
     </row>
@@ -12185,7 +12201,7 @@
       <c r="A17" t="s">
         <v>873</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>83.703999999999994</v>
       </c>
     </row>
@@ -12193,7 +12209,7 @@
       <c r="A18" t="s">
         <v>507</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>83.668000000000006</v>
       </c>
     </row>
@@ -12201,7 +12217,7 @@
       <c r="A19" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>83.572999999999993</v>
       </c>
     </row>
@@ -12209,7 +12225,7 @@
       <c r="A20" t="s">
         <v>532</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>83.497</v>
       </c>
     </row>
@@ -12217,7 +12233,7 @@
       <c r="A21" t="s">
         <v>861</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>83.492000000000004</v>
       </c>
     </row>
@@ -12225,7 +12241,7 @@
       <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>83.48</v>
       </c>
     </row>
@@ -12233,7 +12249,7 @@
       <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>83.414000000000001</v>
       </c>
     </row>
@@ -12241,7 +12257,7 @@
       <c r="A24" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>83.376999999999995</v>
       </c>
     </row>
@@ -12249,7 +12265,7 @@
       <c r="A25" t="s">
         <v>863</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>83.290999999999997</v>
       </c>
     </row>
@@ -12257,7 +12273,7 @@
       <c r="A26" t="s">
         <v>501</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>83.245000000000005</v>
       </c>
     </row>
@@ -12265,7 +12281,7 @@
       <c r="A27" t="s">
         <v>536</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>83.23</v>
       </c>
     </row>
@@ -12273,7 +12289,7 @@
       <c r="A28" t="s">
         <v>519</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>83.206000000000003</v>
       </c>
     </row>
@@ -12281,7 +12297,7 @@
       <c r="A29" t="s">
         <v>868</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>83.186000000000007</v>
       </c>
     </row>
@@ -12289,7 +12305,7 @@
       <c r="A30" t="s">
         <v>377</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>83.055000000000007</v>
       </c>
     </row>
@@ -12297,7 +12313,7 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>83.05</v>
       </c>
     </row>
@@ -12305,7 +12321,7 @@
       <c r="A32" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>82.957999999999998</v>
       </c>
     </row>
@@ -12313,7 +12329,7 @@
       <c r="A33" t="s">
         <v>866</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>82.956999999999994</v>
       </c>
     </row>
@@ -12321,7 +12337,7 @@
       <c r="A34" t="s">
         <v>500</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>82.89</v>
       </c>
     </row>
@@ -12329,7 +12345,7 @@
       <c r="A35" t="s">
         <v>854</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>82.825000000000003</v>
       </c>
     </row>
@@ -12337,7 +12353,7 @@
       <c r="A36" t="s">
         <v>869</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>82.811999999999998</v>
       </c>
     </row>
@@ -12345,7 +12361,7 @@
       <c r="A37" t="s">
         <v>858</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>82.635999999999996</v>
       </c>
     </row>
@@ -12353,7 +12369,7 @@
       <c r="A38" t="s">
         <v>856</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>82.623999999999995</v>
       </c>
     </row>
@@ -12361,7 +12377,7 @@
       <c r="A39" t="s">
         <v>226</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>82.602999999999994</v>
       </c>
     </row>
@@ -12369,7 +12385,7 @@
       <c r="A40" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>82.540999999999997</v>
       </c>
     </row>
@@ -12377,7 +12393,7 @@
       <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>82.483000000000004</v>
       </c>
     </row>
@@ -12385,7 +12401,7 @@
       <c r="A42" t="s">
         <v>522</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>82.471000000000004</v>
       </c>
     </row>
@@ -12393,7 +12409,7 @@
       <c r="A43" t="s">
         <v>703</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>82.438000000000002</v>
       </c>
     </row>
@@ -12401,7 +12417,7 @@
       <c r="A44" t="s">
         <v>517</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>82.427999999999997</v>
       </c>
     </row>
@@ -12409,7 +12425,7 @@
       <c r="A45" t="s">
         <v>529</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>82.352000000000004</v>
       </c>
     </row>
@@ -12417,7 +12433,7 @@
       <c r="A46" t="s">
         <v>505</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>82.284000000000006</v>
       </c>
     </row>
@@ -12425,7 +12441,7 @@
       <c r="A47" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>82.18</v>
       </c>
     </row>
@@ -12433,7 +12449,7 @@
       <c r="A48" t="s">
         <v>266</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>82.167000000000002</v>
       </c>
     </row>
@@ -12441,7 +12457,7 @@
       <c r="A49" t="s">
         <v>859</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>82.156000000000006</v>
       </c>
     </row>
@@ -12449,7 +12465,7 @@
       <c r="A50" t="s">
         <v>525</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>82.153999999999996</v>
       </c>
     </row>
@@ -12457,7 +12473,7 @@
       <c r="A51" t="s">
         <v>358</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>82.122</v>
       </c>
     </row>
@@ -12465,7 +12481,7 @@
       <c r="A52" t="s">
         <v>498</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>82.057000000000002</v>
       </c>
     </row>
@@ -12473,7 +12489,7 @@
       <c r="A53" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>82.05</v>
       </c>
     </row>
@@ -12481,7 +12497,7 @@
       <c r="A54" t="s">
         <v>538</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>82.05</v>
       </c>
     </row>
@@ -12489,7 +12505,7 @@
       <c r="A55" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>82.027000000000001</v>
       </c>
     </row>
@@ -12497,7 +12513,7 @@
       <c r="A56" t="s">
         <v>857</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>82.021000000000001</v>
       </c>
     </row>
@@ -12505,7 +12521,7 @@
       <c r="A57" t="s">
         <v>504</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>82.018000000000001</v>
       </c>
     </row>
@@ -12513,7 +12529,7 @@
       <c r="A58" t="s">
         <v>539</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>81.99</v>
       </c>
     </row>
@@ -12521,7 +12537,7 @@
       <c r="A59" t="s">
         <v>496</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>81.974999999999994</v>
       </c>
     </row>
@@ -12529,7 +12545,7 @@
       <c r="A60" t="s">
         <v>659</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>81.953999999999994</v>
       </c>
     </row>
@@ -12537,7 +12553,7 @@
       <c r="A61" t="s">
         <v>658</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>81.902000000000001</v>
       </c>
     </row>
@@ -12545,7 +12561,7 @@
       <c r="A62" t="s">
         <v>849</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>81.817999999999998</v>
       </c>
     </row>
@@ -12553,7 +12569,7 @@
       <c r="A63" t="s">
         <v>332</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>81.756</v>
       </c>
     </row>
@@ -12561,7 +12577,7 @@
       <c r="A64" t="s">
         <v>885</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>81.724999999999994</v>
       </c>
     </row>
@@ -12569,7 +12585,7 @@
       <c r="A65" t="s">
         <v>503</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>81.709999999999994</v>
       </c>
     </row>
@@ -12577,7 +12593,7 @@
       <c r="A66" t="s">
         <v>844</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>81.680999999999997</v>
       </c>
     </row>
@@ -12585,7 +12601,7 @@
       <c r="A67" t="s">
         <v>515</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>81.659000000000006</v>
       </c>
     </row>
@@ -12593,7 +12609,7 @@
       <c r="A68" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>81.63</v>
       </c>
     </row>
@@ -12601,7 +12617,7 @@
       <c r="A69" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>81.614999999999995</v>
       </c>
     </row>
@@ -12609,7 +12625,7 @@
       <c r="A70" t="s">
         <v>490</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>81.599000000000004</v>
       </c>
     </row>
@@ -12617,7 +12633,7 @@
       <c r="A71" t="s">
         <v>370</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>81.587999999999994</v>
       </c>
     </row>
@@ -12625,7 +12641,7 @@
       <c r="A72" t="s">
         <v>865</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>81.567999999999998</v>
       </c>
     </row>
@@ -12633,7 +12649,7 @@
       <c r="A73" t="s">
         <v>537</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>81.555000000000007</v>
       </c>
     </row>
@@ -12641,7 +12657,7 @@
       <c r="A74" t="s">
         <v>860</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>81.438999999999993</v>
       </c>
     </row>
@@ -12649,7 +12665,7 @@
       <c r="A75" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>81.432000000000002</v>
       </c>
     </row>
@@ -12657,7 +12673,7 @@
       <c r="A76" t="s">
         <v>879</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>81.418999999999997</v>
       </c>
     </row>
@@ -12665,7 +12681,7 @@
       <c r="A77" t="s">
         <v>531</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>81.347999999999999</v>
       </c>
     </row>
@@ -12673,7 +12689,7 @@
       <c r="A78" t="s">
         <v>338</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>81.31</v>
       </c>
     </row>
@@ -12681,7 +12697,7 @@
       <c r="A79" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>81.305999999999997</v>
       </c>
     </row>
@@ -12689,7 +12705,7 @@
       <c r="A80" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>81.28</v>
       </c>
     </row>
@@ -12697,7 +12713,7 @@
       <c r="A81" t="s">
         <v>423</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>81.263000000000005</v>
       </c>
     </row>
@@ -12705,7 +12721,7 @@
       <c r="A82" t="s">
         <v>339</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>81.257999999999996</v>
       </c>
     </row>
@@ -12713,7 +12729,7 @@
       <c r="A83" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>81.245999999999995</v>
       </c>
     </row>
@@ -12721,7 +12737,7 @@
       <c r="A84" t="s">
         <v>654</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>81.224999999999994</v>
       </c>
     </row>
@@ -12729,7 +12745,7 @@
       <c r="A85" t="s">
         <v>651</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>81.215999999999994</v>
       </c>
     </row>
@@ -12737,7 +12753,7 @@
       <c r="A86" t="s">
         <v>862</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>81.143000000000001</v>
       </c>
     </row>
@@ -12745,7 +12761,7 @@
       <c r="A87" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>81.126000000000005</v>
       </c>
     </row>
@@ -12753,7 +12769,7 @@
       <c r="A88" t="s">
         <v>888</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>81.106999999999999</v>
       </c>
     </row>
@@ -12761,7 +12777,7 @@
       <c r="A89" t="s">
         <v>527</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>81.096999999999994</v>
       </c>
     </row>
@@ -12769,7 +12785,7 @@
       <c r="A90" t="s">
         <v>494</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>81.075000000000003</v>
       </c>
     </row>
@@ -12777,7 +12793,7 @@
       <c r="A91" t="s">
         <v>657</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>81.058999999999997</v>
       </c>
     </row>
@@ -12785,7 +12801,7 @@
       <c r="A92" t="s">
         <v>706</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>81.031000000000006</v>
       </c>
     </row>
@@ -12793,7 +12809,7 @@
       <c r="A93" t="s">
         <v>710</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>81.016000000000005</v>
       </c>
     </row>
@@ -12801,7 +12817,7 @@
       <c r="A94" t="s">
         <v>864</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>80.997</v>
       </c>
     </row>
@@ -12809,7 +12825,7 @@
       <c r="A95" t="s">
         <v>943</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>80.891000000000005</v>
       </c>
     </row>
@@ -12817,7 +12833,7 @@
       <c r="A96" t="s">
         <v>340</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>80.88</v>
       </c>
     </row>
@@ -12825,7 +12841,7 @@
       <c r="A97" t="s">
         <v>851</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>80.866</v>
       </c>
     </row>
@@ -12833,7 +12849,7 @@
       <c r="A98" t="s">
         <v>489</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>80.811999999999998</v>
       </c>
     </row>
@@ -12841,7 +12857,7 @@
       <c r="A99" t="s">
         <v>365</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>80.751000000000005</v>
       </c>
     </row>
@@ -12849,7 +12865,7 @@
       <c r="A100" t="s">
         <v>533</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>80.736999999999995</v>
       </c>
     </row>
@@ -12857,7 +12873,7 @@
       <c r="A101" t="s">
         <v>506</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>80.700999999999993</v>
       </c>
     </row>
@@ -12865,7 +12881,7 @@
       <c r="A102" t="s">
         <v>495</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>80.686000000000007</v>
       </c>
     </row>
@@ -12873,7 +12889,7 @@
       <c r="A103" t="s">
         <v>810</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>80.674000000000007</v>
       </c>
     </row>
@@ -12881,7 +12897,7 @@
       <c r="A104" t="s">
         <v>337</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>80.614000000000004</v>
       </c>
     </row>
@@ -12889,7 +12905,7 @@
       <c r="A105" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>80.611999999999995</v>
       </c>
     </row>
@@ -12897,7 +12913,7 @@
       <c r="A106" t="s">
         <v>497</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>80.597999999999999</v>
       </c>
     </row>
@@ -12905,7 +12921,7 @@
       <c r="A107" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>80.572000000000003</v>
       </c>
     </row>
@@ -12913,7 +12929,7 @@
       <c r="A108" t="s">
         <v>327</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>80.543000000000006</v>
       </c>
     </row>
@@ -12921,7 +12937,7 @@
       <c r="A109" t="s">
         <v>897</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>80.48</v>
       </c>
     </row>
@@ -12929,7 +12945,7 @@
       <c r="A110" t="s">
         <v>486</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>80.474000000000004</v>
       </c>
     </row>
@@ -12937,7 +12953,7 @@
       <c r="A111" t="s">
         <v>491</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>80.448999999999998</v>
       </c>
     </row>
@@ -12945,7 +12961,7 @@
       <c r="A112" t="s">
         <v>380</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>80.290999999999997</v>
       </c>
     </row>
@@ -12953,7 +12969,7 @@
       <c r="A113" t="s">
         <v>652</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>80.272999999999996</v>
       </c>
     </row>
@@ -12961,7 +12977,7 @@
       <c r="A114" t="s">
         <v>853</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>80.251999999999995</v>
       </c>
     </row>
@@ -12969,7 +12985,7 @@
       <c r="A115" t="s">
         <v>274</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>80.183999999999997</v>
       </c>
     </row>
@@ -12977,7 +12993,7 @@
       <c r="A116" t="s">
         <v>968</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>80.176000000000002</v>
       </c>
     </row>
@@ -12985,7 +13001,7 @@
       <c r="A117" t="s">
         <v>535</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>80.12</v>
       </c>
     </row>
@@ -12993,7 +13009,7 @@
       <c r="A118" t="s">
         <v>374</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <v>80.108000000000004</v>
       </c>
     </row>
@@ -13001,7 +13017,7 @@
       <c r="A119" t="s">
         <v>840</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>80.073999999999998</v>
       </c>
     </row>
@@ -13009,7 +13025,7 @@
       <c r="A120" t="s">
         <v>512</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <v>80.066999999999993</v>
       </c>
     </row>
@@ -13017,7 +13033,7 @@
       <c r="A121" t="s">
         <v>882</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="3">
         <v>80.063000000000002</v>
       </c>
     </row>
@@ -13025,7 +13041,7 @@
       <c r="A122" t="s">
         <v>499</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <v>80.061999999999998</v>
       </c>
     </row>
@@ -13033,7 +13049,7 @@
       <c r="A123" t="s">
         <v>518</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="3">
         <v>80.045000000000002</v>
       </c>
     </row>
@@ -13041,7 +13057,7 @@
       <c r="A124" t="s">
         <v>35</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="3">
         <v>80.037000000000006</v>
       </c>
     </row>
@@ -13049,7 +13065,7 @@
       <c r="A125" t="s">
         <v>371</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="3">
         <v>80.018000000000001</v>
       </c>
     </row>
@@ -13057,7 +13073,7 @@
       <c r="A126" t="s">
         <v>901</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="3">
         <v>79.966999999999999</v>
       </c>
     </row>
@@ -13065,7 +13081,7 @@
       <c r="A127" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="3">
         <v>79.912000000000006</v>
       </c>
     </row>
@@ -13073,7 +13089,7 @@
       <c r="A128" t="s">
         <v>268</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="3">
         <v>79.908000000000001</v>
       </c>
     </row>
@@ -13081,7 +13097,7 @@
       <c r="A129" t="s">
         <v>239</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>79.884</v>
       </c>
     </row>
@@ -13089,7 +13105,7 @@
       <c r="A130" t="s">
         <v>895</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <v>79.867999999999995</v>
       </c>
     </row>
@@ -13097,7 +13113,7 @@
       <c r="A131" t="s">
         <v>257</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="3">
         <v>79.864000000000004</v>
       </c>
     </row>
@@ -13105,7 +13121,7 @@
       <c r="A132" t="s">
         <v>898</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="3">
         <v>79.855999999999995</v>
       </c>
     </row>
@@ -13113,7 +13129,7 @@
       <c r="A133" t="s">
         <v>891</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="3">
         <v>79.850999999999999</v>
       </c>
     </row>
@@ -13121,7 +13137,7 @@
       <c r="A134" t="s">
         <v>892</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="3">
         <v>79.837999999999994</v>
       </c>
     </row>
@@ -13129,7 +13145,7 @@
       <c r="A135" t="s">
         <v>889</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="3">
         <v>79.831000000000003</v>
       </c>
     </row>
@@ -13137,7 +13153,7 @@
       <c r="A136" t="s">
         <v>876</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="3">
         <v>79.778000000000006</v>
       </c>
     </row>
@@ -13145,7 +13161,7 @@
       <c r="A137" t="s">
         <v>359</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="3">
         <v>79.769000000000005</v>
       </c>
     </row>
@@ -13153,7 +13169,7 @@
       <c r="A138" t="s">
         <v>899</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="3">
         <v>79.742000000000004</v>
       </c>
     </row>
@@ -13161,7 +13177,7 @@
       <c r="A139" t="s">
         <v>842</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>79.739000000000004</v>
       </c>
     </row>
@@ -13169,7 +13185,7 @@
       <c r="A140" t="s">
         <v>843</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="3">
         <v>79.739000000000004</v>
       </c>
     </row>
@@ -13177,7 +13193,7 @@
       <c r="A141" t="s">
         <v>705</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="3">
         <v>79.721999999999994</v>
       </c>
     </row>
@@ -13185,7 +13201,7 @@
       <c r="A142" t="s">
         <v>542</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="3">
         <v>79.721000000000004</v>
       </c>
     </row>
@@ -13193,7 +13209,7 @@
       <c r="A143" t="s">
         <v>360</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="3">
         <v>79.712000000000003</v>
       </c>
     </row>
@@ -13201,7 +13217,7 @@
       <c r="A144" t="s">
         <v>378</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>79.647000000000006</v>
       </c>
     </row>
@@ -13209,7 +13225,7 @@
       <c r="A145" t="s">
         <v>541</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>79.581000000000003</v>
       </c>
     </row>
@@ -13217,7 +13233,7 @@
       <c r="A146" t="s">
         <v>871</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="3">
         <v>79.563999999999993</v>
       </c>
     </row>
@@ -13225,7 +13241,7 @@
       <c r="A147" t="s">
         <v>886</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="3">
         <v>79.551000000000002</v>
       </c>
     </row>
@@ -13233,7 +13249,7 @@
       <c r="A148" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="3">
         <v>79.53</v>
       </c>
     </row>
@@ -13241,7 +13257,7 @@
       <c r="A149" t="s">
         <v>372</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="3">
         <v>79.486999999999995</v>
       </c>
     </row>
@@ -13249,7 +13265,7 @@
       <c r="A150" t="s">
         <v>847</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="3">
         <v>79.424999999999997</v>
       </c>
     </row>
@@ -13257,7 +13273,7 @@
       <c r="A151" t="s">
         <v>992</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="3">
         <v>79.406999999999996</v>
       </c>
     </row>
@@ -13265,7 +13281,7 @@
       <c r="A152" t="s">
         <v>831</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="3">
         <v>79.37</v>
       </c>
     </row>
@@ -13273,7 +13289,7 @@
       <c r="A153" t="s">
         <v>893</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="3">
         <v>79.367000000000004</v>
       </c>
     </row>
@@ -13281,7 +13297,7 @@
       <c r="A154" t="s">
         <v>867</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="3">
         <v>79.358999999999995</v>
       </c>
     </row>
@@ -13289,7 +13305,7 @@
       <c r="A155" t="s">
         <v>846</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>79.349000000000004</v>
       </c>
     </row>
@@ -13297,7 +13313,7 @@
       <c r="A156" t="s">
         <v>353</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="3">
         <v>79.313999999999993</v>
       </c>
     </row>
@@ -13305,7 +13321,7 @@
       <c r="A157" t="s">
         <v>850</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="3">
         <v>79.266000000000005</v>
       </c>
     </row>
@@ -13313,7 +13329,7 @@
       <c r="A158" t="s">
         <v>379</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="3">
         <v>79.225999999999999</v>
       </c>
     </row>
@@ -13321,7 +13337,7 @@
       <c r="A159" t="s">
         <v>509</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="3">
         <v>79.090999999999994</v>
       </c>
     </row>
@@ -13329,7 +13345,7 @@
       <c r="A160" t="s">
         <v>34</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="3">
         <v>79.076999999999998</v>
       </c>
     </row>
@@ -13337,7 +13353,7 @@
       <c r="A161" t="s">
         <v>270</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="3">
         <v>78.974000000000004</v>
       </c>
     </row>
@@ -13345,7 +13361,7 @@
       <c r="A162" t="s">
         <v>232</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="3">
         <v>78.953000000000003</v>
       </c>
     </row>
@@ -13353,7 +13369,7 @@
       <c r="A163" t="s">
         <v>368</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="3">
         <v>78.941000000000003</v>
       </c>
     </row>
@@ -13361,7 +13377,7 @@
       <c r="A164" t="s">
         <v>987</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="3">
         <v>78.933000000000007</v>
       </c>
     </row>
@@ -13369,7 +13385,7 @@
       <c r="A165" t="s">
         <v>429</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="3">
         <v>78.930000000000007</v>
       </c>
     </row>
@@ -13377,7 +13393,7 @@
       <c r="A166" t="s">
         <v>263</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="3">
         <v>78.899000000000001</v>
       </c>
     </row>
@@ -13385,7 +13401,7 @@
       <c r="A167" t="s">
         <v>877</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="3">
         <v>78.882999999999996</v>
       </c>
     </row>
@@ -13393,7 +13409,7 @@
       <c r="A168" t="s">
         <v>493</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="3">
         <v>78.828000000000003</v>
       </c>
     </row>
@@ -13401,7 +13417,7 @@
       <c r="A169" t="s">
         <v>712</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>78.787000000000006</v>
       </c>
     </row>
@@ -13409,7 +13425,7 @@
       <c r="A170" t="s">
         <v>511</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="3">
         <v>78.765000000000001</v>
       </c>
     </row>
@@ -13417,7 +13433,7 @@
       <c r="A171" t="s">
         <v>492</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="3">
         <v>78.736999999999995</v>
       </c>
     </row>
@@ -13425,7 +13441,7 @@
       <c r="A172" t="s">
         <v>521</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="3">
         <v>78.725999999999999</v>
       </c>
     </row>
@@ -13433,7 +13449,7 @@
       <c r="A173" t="s">
         <v>708</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="3">
         <v>78.706000000000003</v>
       </c>
     </row>
@@ -13441,7 +13457,7 @@
       <c r="A174" t="s">
         <v>510</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>78.694999999999993</v>
       </c>
     </row>
@@ -13449,7 +13465,7 @@
       <c r="A175" t="s">
         <v>650</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="3">
         <v>78.665000000000006</v>
       </c>
     </row>
@@ -13457,7 +13473,7 @@
       <c r="A176" t="s">
         <v>711</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="3">
         <v>78.647999999999996</v>
       </c>
     </row>
@@ -13465,7 +13481,7 @@
       <c r="A177" t="s">
         <v>347</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="3">
         <v>78.644000000000005</v>
       </c>
     </row>
@@ -13473,7 +13489,7 @@
       <c r="A178" t="s">
         <v>662</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="3">
         <v>78.563999999999993</v>
       </c>
     </row>
@@ -13481,7 +13497,7 @@
       <c r="A179" t="s">
         <v>216</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="3">
         <v>78.516000000000005</v>
       </c>
     </row>
@@ -13489,7 +13505,7 @@
       <c r="A180" t="s">
         <v>520</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="3">
         <v>78.491</v>
       </c>
     </row>
@@ -13497,7 +13513,7 @@
       <c r="A181" t="s">
         <v>245</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="3">
         <v>78.483999999999995</v>
       </c>
     </row>
@@ -13505,7 +13521,7 @@
       <c r="A182" t="s">
         <v>648</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>78.459999999999994</v>
       </c>
     </row>
@@ -13513,7 +13529,7 @@
       <c r="A183" t="s">
         <v>939</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>78.367000000000004</v>
       </c>
     </row>
@@ -13521,7 +13537,7 @@
       <c r="A184" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>78.349000000000004</v>
       </c>
     </row>
@@ -13529,7 +13545,7 @@
       <c r="A185" t="s">
         <v>240</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>78.314999999999998</v>
       </c>
     </row>
@@ -13537,7 +13553,7 @@
       <c r="A186" t="s">
         <v>236</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="3">
         <v>78.301000000000002</v>
       </c>
     </row>
@@ -13545,7 +13561,7 @@
       <c r="A187" t="s">
         <v>900</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>78.247</v>
       </c>
     </row>
@@ -13553,7 +13569,7 @@
       <c r="A188" t="s">
         <v>938</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="3">
         <v>78.222999999999999</v>
       </c>
     </row>
@@ -13561,7 +13577,7 @@
       <c r="A189" t="s">
         <v>524</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="3">
         <v>78.207999999999998</v>
       </c>
     </row>
@@ -13569,7 +13585,7 @@
       <c r="A190" t="s">
         <v>352</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="3">
         <v>78.161000000000001</v>
       </c>
     </row>
@@ -13577,7 +13593,7 @@
       <c r="A191" t="s">
         <v>963</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="3">
         <v>78.116</v>
       </c>
     </row>
@@ -13585,7 +13601,7 @@
       <c r="A192" t="s">
         <v>526</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="3">
         <v>78.105000000000004</v>
       </c>
     </row>
@@ -13593,7 +13609,7 @@
       <c r="A193" t="s">
         <v>704</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="3">
         <v>78.094999999999999</v>
       </c>
     </row>
@@ -13601,7 +13617,7 @@
       <c r="A194" t="s">
         <v>376</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="3">
         <v>78.058000000000007</v>
       </c>
     </row>
@@ -13609,7 +13625,7 @@
       <c r="A195" t="s">
         <v>875</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="3">
         <v>78.05</v>
       </c>
     </row>
@@ -13617,7 +13633,7 @@
       <c r="A196" t="s">
         <v>534</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="3">
         <v>78.036000000000001</v>
       </c>
     </row>
@@ -13625,7 +13641,7 @@
       <c r="A197" t="s">
         <v>361</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="3">
         <v>78.024000000000001</v>
       </c>
     </row>
@@ -13633,7 +13649,7 @@
       <c r="A198" t="s">
         <v>357</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="3">
         <v>77.870999999999995</v>
       </c>
     </row>
@@ -13641,7 +13657,7 @@
       <c r="A199" t="s">
         <v>513</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="3">
         <v>77.852999999999994</v>
       </c>
     </row>
@@ -13649,7 +13665,7 @@
       <c r="A200" t="s">
         <v>530</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="3">
         <v>77.843999999999994</v>
       </c>
     </row>
@@ -13657,7 +13673,7 @@
       <c r="A201" t="s">
         <v>373</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="3">
         <v>77.817999999999998</v>
       </c>
     </row>
@@ -13665,7 +13681,7 @@
       <c r="A202" t="s">
         <v>647</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="3">
         <v>77.753</v>
       </c>
     </row>
@@ -13673,7 +13689,7 @@
       <c r="A203" t="s">
         <v>242</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="3">
         <v>77.734999999999999</v>
       </c>
     </row>
@@ -13681,7 +13697,7 @@
       <c r="A204" t="s">
         <v>602</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>77.734999999999999</v>
       </c>
     </row>
@@ -13689,7 +13705,7 @@
       <c r="A205" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="3">
         <v>77.67</v>
       </c>
     </row>
@@ -13697,7 +13713,7 @@
       <c r="A206" t="s">
         <v>343</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="3">
         <v>77.602000000000004</v>
       </c>
     </row>
@@ -13705,7 +13721,7 @@
       <c r="A207" t="s">
         <v>660</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="3">
         <v>77.59</v>
       </c>
     </row>
@@ -13713,7 +13729,7 @@
       <c r="A208" t="s">
         <v>646</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="3">
         <v>77.58</v>
       </c>
     </row>
@@ -13721,7 +13737,7 @@
       <c r="A209" t="s">
         <v>896</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="3">
         <v>77.58</v>
       </c>
     </row>
@@ -13729,7 +13745,7 @@
       <c r="A210" t="s">
         <v>38</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="3">
         <v>77.566999999999993</v>
       </c>
     </row>
@@ -13737,7 +13753,7 @@
       <c r="A211" t="s">
         <v>934</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="3">
         <v>77.527000000000001</v>
       </c>
     </row>
@@ -13745,7 +13761,7 @@
       <c r="A212" t="s">
         <v>275</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="3">
         <v>77.52</v>
       </c>
     </row>
@@ -13753,7 +13769,7 @@
       <c r="A213" t="s">
         <v>363</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="3">
         <v>77.483000000000004</v>
       </c>
     </row>
@@ -13761,7 +13777,7 @@
       <c r="A214" t="s">
         <v>960</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="3">
         <v>77.427000000000007</v>
       </c>
     </row>
@@ -13769,7 +13785,7 @@
       <c r="A215" t="s">
         <v>309</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="3">
         <v>77.406000000000006</v>
       </c>
     </row>
@@ -13777,7 +13793,7 @@
       <c r="A216" t="s">
         <v>881</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="3">
         <v>77.385999999999996</v>
       </c>
     </row>
@@ -13785,7 +13801,7 @@
       <c r="A217" t="s">
         <v>231</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="3">
         <v>77.192999999999998</v>
       </c>
     </row>
@@ -13793,7 +13809,7 @@
       <c r="A218" t="s">
         <v>24</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="3">
         <v>77.144999999999996</v>
       </c>
     </row>
@@ -13801,7 +13817,7 @@
       <c r="A219" t="s">
         <v>33</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="3">
         <v>77.14</v>
       </c>
     </row>
@@ -13809,7 +13825,7 @@
       <c r="A220" t="s">
         <v>649</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="3">
         <v>77.13</v>
       </c>
     </row>
@@ -13817,7 +13833,7 @@
       <c r="A221" t="s">
         <v>540</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="3">
         <v>77.111999999999995</v>
       </c>
     </row>
@@ -13825,7 +13841,7 @@
       <c r="A222" t="s">
         <v>366</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="3">
         <v>76.915999999999997</v>
       </c>
     </row>
@@ -13833,7 +13849,7 @@
       <c r="A223" t="s">
         <v>488</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="3">
         <v>76.915999999999997</v>
       </c>
     </row>
@@ -13841,7 +13857,7 @@
       <c r="A224" t="s">
         <v>261</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="3">
         <v>76.911000000000001</v>
       </c>
     </row>
@@ -13849,7 +13865,7 @@
       <c r="A225" t="s">
         <v>355</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="3">
         <v>76.906999999999996</v>
       </c>
     </row>
@@ -13857,7 +13873,7 @@
       <c r="A226" t="s">
         <v>528</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="3">
         <v>76.891999999999996</v>
       </c>
     </row>
@@ -13865,7 +13881,7 @@
       <c r="A227" t="s">
         <v>237</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="3">
         <v>76.813000000000002</v>
       </c>
     </row>
@@ -13873,7 +13889,7 @@
       <c r="A228" t="s">
         <v>655</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="3">
         <v>76.807000000000002</v>
       </c>
     </row>
@@ -13881,7 +13897,7 @@
       <c r="A229" t="s">
         <v>260</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="3">
         <v>76.748999999999995</v>
       </c>
     </row>
@@ -13889,7 +13905,7 @@
       <c r="A230" t="s">
         <v>31</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="3">
         <v>76.718999999999994</v>
       </c>
     </row>
@@ -13897,7 +13913,7 @@
       <c r="A231" t="s">
         <v>845</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="3">
         <v>76.622</v>
       </c>
     </row>
@@ -13905,7 +13921,7 @@
       <c r="A232" t="s">
         <v>264</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="3">
         <v>76.600999999999999</v>
       </c>
     </row>
@@ -13913,7 +13929,7 @@
       <c r="A233" t="s">
         <v>523</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="3">
         <v>76.540999999999997</v>
       </c>
     </row>
@@ -13921,7 +13937,7 @@
       <c r="A234" t="s">
         <v>932</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="3">
         <v>76.460999999999999</v>
       </c>
     </row>
@@ -13929,7 +13945,7 @@
       <c r="A235" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="3">
         <v>76.45</v>
       </c>
     </row>
@@ -13937,7 +13953,7 @@
       <c r="A236" t="s">
         <v>707</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="3">
         <v>76.430000000000007</v>
       </c>
     </row>
@@ -13945,7 +13961,7 @@
       <c r="A237" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="3">
         <v>76.400999999999996</v>
       </c>
     </row>
@@ -13953,7 +13969,7 @@
       <c r="A238" t="s">
         <v>330</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="3">
         <v>76.400000000000006</v>
       </c>
     </row>
@@ -13961,7 +13977,7 @@
       <c r="A239" t="s">
         <v>420</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="3">
         <v>76.13</v>
       </c>
     </row>
@@ -13969,7 +13985,7 @@
       <c r="A240" t="s">
         <v>890</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="3">
         <v>76.067999999999998</v>
       </c>
     </row>
@@ -13977,7 +13993,7 @@
       <c r="A241" t="s">
         <v>328</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="3">
         <v>76.06</v>
       </c>
     </row>
@@ -13985,7 +14001,7 @@
       <c r="A242" t="s">
         <v>375</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="3">
         <v>76.040999999999997</v>
       </c>
     </row>
@@ -13993,7 +14009,7 @@
       <c r="A243" t="s">
         <v>852</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="3">
         <v>75.991</v>
       </c>
     </row>
@@ -14001,7 +14017,7 @@
       <c r="A244" t="s">
         <v>27</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="3">
         <v>75.98</v>
       </c>
     </row>
@@ -14009,7 +14025,7 @@
       <c r="A245" t="s">
         <v>487</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="3">
         <v>75.927000000000007</v>
       </c>
     </row>
@@ -14017,7 +14033,7 @@
       <c r="A246" t="s">
         <v>430</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="3">
         <v>75.926000000000002</v>
       </c>
     </row>
@@ -14025,7 +14041,7 @@
       <c r="A247" t="s">
         <v>319</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="3">
         <v>75.83</v>
       </c>
     </row>
@@ -14033,7 +14049,7 @@
       <c r="A248" t="s">
         <v>431</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="3">
         <v>75.744</v>
       </c>
     </row>
@@ -14041,7 +14057,7 @@
       <c r="A249" t="s">
         <v>942</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="3">
         <v>75.738</v>
       </c>
     </row>
@@ -14049,7 +14065,7 @@
       <c r="A250" t="s">
         <v>410</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="3">
         <v>75.712000000000003</v>
       </c>
     </row>
@@ -14057,7 +14073,7 @@
       <c r="A251" t="s">
         <v>258</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="3">
         <v>75.64</v>
       </c>
     </row>
@@ -14065,7 +14081,7 @@
       <c r="A252" t="s">
         <v>273</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="3">
         <v>75.567999999999998</v>
       </c>
     </row>
@@ -14073,7 +14089,7 @@
       <c r="A253" t="s">
         <v>965</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="3">
         <v>75.555999999999997</v>
       </c>
     </row>
@@ -14081,7 +14097,7 @@
       <c r="A254" t="s">
         <v>272</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="3">
         <v>75.524000000000001</v>
       </c>
     </row>
@@ -14089,7 +14105,7 @@
       <c r="A255" t="s">
         <v>276</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="3">
         <v>75.522999999999996</v>
       </c>
     </row>
@@ -14097,7 +14113,7 @@
       <c r="A256" t="s">
         <v>516</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="3">
         <v>75.497</v>
       </c>
     </row>
@@ -14105,7 +14121,7 @@
       <c r="A257" t="s">
         <v>600</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="3">
         <v>75.471999999999994</v>
       </c>
     </row>
@@ -14113,7 +14129,7 @@
       <c r="A258" t="s">
         <v>940</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="3">
         <v>75.447999999999993</v>
       </c>
     </row>
@@ -14121,7 +14137,7 @@
       <c r="A259" t="s">
         <v>838</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="3">
         <v>75.423000000000002</v>
       </c>
     </row>
@@ -14129,7 +14145,7 @@
       <c r="A260" t="s">
         <v>664</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="3">
         <v>75.396000000000001</v>
       </c>
     </row>
@@ -14137,7 +14153,7 @@
       <c r="A261" t="s">
         <v>65</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="3">
         <v>75.37</v>
       </c>
     </row>
@@ -14145,7 +14161,7 @@
       <c r="A262" t="s">
         <v>887</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="3">
         <v>75.349000000000004</v>
       </c>
     </row>
@@ -14153,7 +14169,7 @@
       <c r="A263" t="s">
         <v>415</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="3">
         <v>75.260000000000005</v>
       </c>
     </row>
@@ -14161,7 +14177,7 @@
       <c r="A264" t="s">
         <v>362</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="3">
         <v>75.25</v>
       </c>
     </row>
@@ -14169,7 +14185,7 @@
       <c r="A265" t="s">
         <v>884</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="3">
         <v>75.180999999999997</v>
       </c>
     </row>
@@ -14177,7 +14193,7 @@
       <c r="A266" t="s">
         <v>959</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="3">
         <v>75.174999999999997</v>
       </c>
     </row>
@@ -14185,7 +14201,7 @@
       <c r="A267" t="s">
         <v>962</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="3">
         <v>75.171999999999997</v>
       </c>
     </row>
@@ -14193,7 +14209,7 @@
       <c r="A268" t="s">
         <v>754</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="3">
         <v>75.164000000000001</v>
       </c>
     </row>
@@ -14201,7 +14217,7 @@
       <c r="A269" t="s">
         <v>428</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="3">
         <v>75.155000000000001</v>
       </c>
     </row>
@@ -14209,7 +14225,7 @@
       <c r="A270" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="3">
         <v>75.143000000000001</v>
       </c>
     </row>
@@ -14217,7 +14233,7 @@
       <c r="A271" t="s">
         <v>605</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="3">
         <v>75.096999999999994</v>
       </c>
     </row>
@@ -14225,7 +14241,7 @@
       <c r="A272" t="s">
         <v>419</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="3">
         <v>75.078999999999994</v>
       </c>
     </row>
@@ -14233,7 +14249,7 @@
       <c r="A273" t="s">
         <v>267</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="3">
         <v>74.947999999999993</v>
       </c>
     </row>
@@ -14241,7 +14257,7 @@
       <c r="A274" t="s">
         <v>742</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="3">
         <v>74.938999999999993</v>
       </c>
     </row>
@@ -14249,7 +14265,7 @@
       <c r="A275" t="s">
         <v>411</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="3">
         <v>74.914000000000001</v>
       </c>
     </row>
@@ -14257,7 +14273,7 @@
       <c r="A276" t="s">
         <v>229</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="3">
         <v>74.903999999999996</v>
       </c>
     </row>
@@ -14265,7 +14281,7 @@
       <c r="A277" t="s">
         <v>234</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="3">
         <v>74.882999999999996</v>
       </c>
     </row>
@@ -14273,7 +14289,7 @@
       <c r="A278" t="s">
         <v>972</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="3">
         <v>74.861000000000004</v>
       </c>
     </row>
@@ -14281,7 +14297,7 @@
       <c r="A279" t="s">
         <v>416</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="3">
         <v>74.838999999999999</v>
       </c>
     </row>
@@ -14289,7 +14305,7 @@
       <c r="A280" t="s">
         <v>364</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="3">
         <v>74.804000000000002</v>
       </c>
     </row>
@@ -14297,7 +14313,7 @@
       <c r="A281" t="s">
         <v>830</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="3">
         <v>74.753</v>
       </c>
     </row>
@@ -14305,7 +14321,7 @@
       <c r="A282" t="s">
         <v>656</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="3">
         <v>74.674999999999997</v>
       </c>
     </row>
@@ -14313,7 +14329,7 @@
       <c r="A283" t="s">
         <v>422</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="3">
         <v>74.634</v>
       </c>
     </row>
@@ -14321,7 +14337,7 @@
       <c r="A284" t="s">
         <v>42</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="3">
         <v>74.605000000000004</v>
       </c>
     </row>
@@ -14329,7 +14345,7 @@
       <c r="A285" t="s">
         <v>36</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="3">
         <v>74.596000000000004</v>
       </c>
     </row>
@@ -14337,7 +14353,7 @@
       <c r="A286" t="s">
         <v>218</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="3">
         <v>74.593999999999994</v>
       </c>
     </row>
@@ -14345,7 +14361,7 @@
       <c r="A287" t="s">
         <v>745</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="3">
         <v>74.567999999999998</v>
       </c>
     </row>
@@ -14353,7 +14369,7 @@
       <c r="A288" t="s">
         <v>604</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="3">
         <v>74.533000000000001</v>
       </c>
     </row>
@@ -14361,7 +14377,7 @@
       <c r="A289" t="s">
         <v>345</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="3">
         <v>74.53</v>
       </c>
     </row>
@@ -14369,7 +14385,7 @@
       <c r="A290" t="s">
         <v>665</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="3">
         <v>74.474000000000004</v>
       </c>
     </row>
@@ -14377,7 +14393,7 @@
       <c r="A291" t="s">
         <v>661</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="3">
         <v>74.456999999999994</v>
       </c>
     </row>
@@ -14385,7 +14401,7 @@
       <c r="A292" t="s">
         <v>663</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="3">
         <v>74.456999999999994</v>
       </c>
     </row>
@@ -14393,7 +14409,7 @@
       <c r="A293" t="s">
         <v>786</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="3">
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -14401,7 +14417,7 @@
       <c r="A294" t="s">
         <v>825</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="3">
         <v>74.36</v>
       </c>
     </row>
@@ -14409,7 +14425,7 @@
       <c r="A295" t="s">
         <v>344</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="3">
         <v>74.31</v>
       </c>
     </row>
@@ -14417,7 +14433,7 @@
       <c r="A296" t="s">
         <v>228</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="3">
         <v>74.283000000000001</v>
       </c>
     </row>
@@ -14425,7 +14441,7 @@
       <c r="A297" t="s">
         <v>89</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="3">
         <v>74.260999999999996</v>
       </c>
     </row>
@@ -14433,7 +14449,7 @@
       <c r="A298" t="s">
         <v>342</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="3">
         <v>74.188999999999993</v>
       </c>
     </row>
@@ -14441,7 +14457,7 @@
       <c r="A299" t="s">
         <v>601</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="3">
         <v>74.051000000000002</v>
       </c>
     </row>
@@ -14449,7 +14465,7 @@
       <c r="A300" t="s">
         <v>424</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="3">
         <v>74.031000000000006</v>
       </c>
     </row>
@@ -14457,7 +14473,7 @@
       <c r="A301" t="s">
         <v>412</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="3">
         <v>73.989000000000004</v>
       </c>
     </row>
@@ -14465,7 +14481,7 @@
       <c r="A302" t="s">
         <v>611</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="3">
         <v>73.986999999999995</v>
       </c>
     </row>
@@ -14473,7 +14489,7 @@
       <c r="A303" t="s">
         <v>826</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="3">
         <v>73.968000000000004</v>
       </c>
     </row>
@@ -14481,7 +14497,7 @@
       <c r="A304" t="s">
         <v>870</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="3">
         <v>73.95</v>
       </c>
     </row>
@@ -14489,7 +14505,7 @@
       <c r="A305" t="s">
         <v>413</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="3">
         <v>73.929000000000002</v>
       </c>
     </row>
@@ -14497,7 +14513,7 @@
       <c r="A306" t="s">
         <v>824</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="3">
         <v>73.841999999999999</v>
       </c>
     </row>
@@ -14505,7 +14521,7 @@
       <c r="A307" t="s">
         <v>608</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="3">
         <v>73.781999999999996</v>
       </c>
     </row>
@@ -14513,7 +14529,7 @@
       <c r="A308" t="s">
         <v>72</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="3">
         <v>73.77</v>
       </c>
     </row>
@@ -14521,7 +14537,7 @@
       <c r="A309" t="s">
         <v>610</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="3">
         <v>73.765000000000001</v>
       </c>
     </row>
@@ -14529,7 +14545,7 @@
       <c r="A310" t="s">
         <v>348</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="3">
         <v>73.760000000000005</v>
       </c>
     </row>
@@ -14537,7 +14553,7 @@
       <c r="A311" t="s">
         <v>37</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="3">
         <v>73.704999999999998</v>
       </c>
     </row>
@@ -14545,7 +14561,7 @@
       <c r="A312" t="s">
         <v>351</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="3">
         <v>73.605999999999995</v>
       </c>
     </row>
@@ -14553,7 +14569,7 @@
       <c r="A313" t="s">
         <v>756</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="3">
         <v>73.588999999999999</v>
       </c>
     </row>
@@ -14561,7 +14577,7 @@
       <c r="A314" t="s">
         <v>761</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="3">
         <v>73.587000000000003</v>
       </c>
     </row>
@@ -14569,7 +14585,7 @@
       <c r="A315" t="s">
         <v>329</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="3">
         <v>73.56</v>
       </c>
     </row>
@@ -14577,7 +14593,7 @@
       <c r="A316" t="s">
         <v>26</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="3">
         <v>73.456000000000003</v>
       </c>
     </row>
@@ -14585,7 +14601,7 @@
       <c r="A317" t="s">
         <v>308</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="3">
         <v>73.453000000000003</v>
       </c>
     </row>
@@ -14593,7 +14609,7 @@
       <c r="A318" t="s">
         <v>775</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="3">
         <v>73.448999999999998</v>
       </c>
     </row>
@@ -14601,7 +14617,7 @@
       <c r="A319" t="s">
         <v>29</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="3">
         <v>73.369</v>
       </c>
     </row>
@@ -14609,7 +14625,7 @@
       <c r="A320" t="s">
         <v>809</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="3">
         <v>73.302999999999997</v>
       </c>
     </row>
@@ -14617,7 +14633,7 @@
       <c r="A321" t="s">
         <v>684</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="3">
         <v>73.141000000000005</v>
       </c>
     </row>
@@ -14625,7 +14641,7 @@
       <c r="A322" t="s">
         <v>790</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="3">
         <v>73.051000000000002</v>
       </c>
     </row>
@@ -14633,7 +14649,7 @@
       <c r="A323" t="s">
         <v>744</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="3">
         <v>73.046000000000006</v>
       </c>
     </row>
@@ -14641,7 +14657,7 @@
       <c r="A324" t="s">
         <v>679</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="3">
         <v>73.019000000000005</v>
       </c>
     </row>
@@ -14649,7 +14665,7 @@
       <c r="A325" t="s">
         <v>668</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="3">
         <v>72.92</v>
       </c>
     </row>
@@ -14657,7 +14673,7 @@
       <c r="A326" t="s">
         <v>687</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="3">
         <v>72.846999999999994</v>
       </c>
     </row>
@@ -14665,7 +14681,7 @@
       <c r="A327" t="s">
         <v>685</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="3">
         <v>72.831999999999994</v>
       </c>
     </row>
@@ -14673,7 +14689,7 @@
       <c r="A328" t="s">
         <v>653</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="3">
         <v>72.826999999999998</v>
       </c>
     </row>
@@ -14681,7 +14697,7 @@
       <c r="A329" t="s">
         <v>894</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="3">
         <v>72.781000000000006</v>
       </c>
     </row>
@@ -14689,7 +14705,7 @@
       <c r="A330" t="s">
         <v>827</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="3">
         <v>72.757000000000005</v>
       </c>
     </row>
@@ -14697,7 +14713,7 @@
       <c r="A331" t="s">
         <v>396</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="3">
         <v>72.697999999999993</v>
       </c>
     </row>
@@ -14705,7 +14721,7 @@
       <c r="A332" t="s">
         <v>215</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="3">
         <v>72.688000000000002</v>
       </c>
     </row>
@@ -14713,7 +14729,7 @@
       <c r="A333" t="s">
         <v>872</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="3">
         <v>72.626000000000005</v>
       </c>
     </row>
@@ -14721,7 +14737,7 @@
       <c r="A334" t="s">
         <v>941</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="3">
         <v>72.626000000000005</v>
       </c>
     </row>
@@ -14729,7 +14745,7 @@
       <c r="A335" t="s">
         <v>607</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="3">
         <v>72.596000000000004</v>
       </c>
     </row>
@@ -14737,7 +14753,7 @@
       <c r="A336" t="s">
         <v>11</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="3">
         <v>72.585999999999999</v>
       </c>
     </row>
@@ -14745,7 +14761,7 @@
       <c r="A337" t="s">
         <v>818</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="3">
         <v>72.539000000000001</v>
       </c>
     </row>
@@ -14753,7 +14769,7 @@
       <c r="A338" t="s">
         <v>793</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="3">
         <v>72.474000000000004</v>
       </c>
     </row>
@@ -14761,7 +14777,7 @@
       <c r="A339" t="s">
         <v>414</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="3">
         <v>72.444000000000003</v>
       </c>
     </row>
@@ -14769,7 +14785,7 @@
       <c r="A340" t="s">
         <v>808</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="3">
         <v>72.367000000000004</v>
       </c>
     </row>
@@ -14777,7 +14793,7 @@
       <c r="A341" t="s">
         <v>666</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="3">
         <v>72.302000000000007</v>
       </c>
     </row>
@@ -14785,7 +14801,7 @@
       <c r="A342" t="s">
         <v>755</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="3">
         <v>72.260999999999996</v>
       </c>
     </row>
@@ -14793,7 +14809,7 @@
       <c r="A343" t="s">
         <v>837</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="3">
         <v>72.182000000000002</v>
       </c>
     </row>
@@ -14801,7 +14817,7 @@
       <c r="A344" t="s">
         <v>91</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="3">
         <v>72.149000000000001</v>
       </c>
     </row>
@@ -14809,7 +14825,7 @@
       <c r="A345" t="s">
         <v>675</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="3">
         <v>72.087000000000003</v>
       </c>
     </row>
@@ -14817,7 +14833,7 @@
       <c r="A346" t="s">
         <v>814</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="3">
         <v>72.018000000000001</v>
       </c>
     </row>
@@ -14825,7 +14841,7 @@
       <c r="A347" t="s">
         <v>87</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="3">
         <v>72.016000000000005</v>
       </c>
     </row>
@@ -14833,7 +14849,7 @@
       <c r="A348" t="s">
         <v>709</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="3">
         <v>71.942999999999998</v>
       </c>
     </row>
@@ -14841,7 +14857,7 @@
       <c r="A349" t="s">
         <v>673</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="3">
         <v>71.899000000000001</v>
       </c>
     </row>
@@ -14849,7 +14865,7 @@
       <c r="A350" t="s">
         <v>770</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="3">
         <v>71.866</v>
       </c>
     </row>
@@ -14857,7 +14873,7 @@
       <c r="A351" t="s">
         <v>759</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="3">
         <v>71.853999999999999</v>
       </c>
     </row>
@@ -14865,7 +14881,7 @@
       <c r="A352" t="s">
         <v>802</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="3">
         <v>71.816999999999993</v>
       </c>
     </row>
@@ -14873,7 +14889,7 @@
       <c r="A353" t="s">
         <v>796</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="3">
         <v>71.811000000000007</v>
       </c>
     </row>
@@ -14881,7 +14897,7 @@
       <c r="A354" t="s">
         <v>734</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="3">
         <v>71.718999999999994</v>
       </c>
     </row>
@@ -14889,7 +14905,7 @@
       <c r="A355" t="s">
         <v>214</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="3">
         <v>71.683999999999997</v>
       </c>
     </row>
@@ -14897,7 +14913,7 @@
       <c r="A356" t="s">
         <v>951</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="3">
         <v>71.578999999999994</v>
       </c>
     </row>
@@ -14905,7 +14921,7 @@
       <c r="A357" t="s">
         <v>111</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="3">
         <v>71.566000000000003</v>
       </c>
     </row>
@@ -14913,7 +14929,7 @@
       <c r="A358" t="s">
         <v>792</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="3">
         <v>71.539000000000001</v>
       </c>
     </row>
@@ -14921,7 +14937,7 @@
       <c r="A359" t="s">
         <v>418</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="3">
         <v>71.528999999999996</v>
       </c>
     </row>
@@ -14929,7 +14945,7 @@
       <c r="A360" t="s">
         <v>874</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="3">
         <v>71.480999999999995</v>
       </c>
     </row>
@@ -14937,7 +14953,7 @@
       <c r="A361" t="s">
         <v>779</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="3">
         <v>71.462000000000003</v>
       </c>
     </row>
@@ -14945,7 +14961,7 @@
       <c r="A362" t="s">
         <v>612</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="3">
         <v>71.457999999999998</v>
       </c>
     </row>
@@ -14953,7 +14969,7 @@
       <c r="A363" t="s">
         <v>356</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="3">
         <v>71.447999999999993</v>
       </c>
     </row>
@@ -14961,7 +14977,7 @@
       <c r="A364" t="s">
         <v>30</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="3">
         <v>71.44</v>
       </c>
     </row>
@@ -14969,7 +14985,7 @@
       <c r="A365" t="s">
         <v>80</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="3">
         <v>71.412999999999997</v>
       </c>
     </row>
@@ -14977,7 +14993,7 @@
       <c r="A366" t="s">
         <v>801</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="3">
         <v>71.406000000000006</v>
       </c>
     </row>
@@ -14985,7 +15001,7 @@
       <c r="A367" t="s">
         <v>354</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="3">
         <v>71.393000000000001</v>
       </c>
     </row>
@@ -14993,7 +15009,7 @@
       <c r="A368" t="s">
         <v>819</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="3">
         <v>71.272000000000006</v>
       </c>
     </row>
@@ -15001,7 +15017,7 @@
       <c r="A369" t="s">
         <v>190</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="3">
         <v>71.138000000000005</v>
       </c>
     </row>
@@ -15009,7 +15025,7 @@
       <c r="A370" t="s">
         <v>762</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="3">
         <v>71.126999999999995</v>
       </c>
     </row>
@@ -15017,7 +15033,7 @@
       <c r="A371" t="s">
         <v>743</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="3">
         <v>71.123000000000005</v>
       </c>
     </row>
@@ -15025,7 +15041,7 @@
       <c r="A372" t="s">
         <v>740</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="3">
         <v>71.108999999999995</v>
       </c>
     </row>
@@ -15033,7 +15049,7 @@
       <c r="A373" t="s">
         <v>17</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="3">
         <v>71.108000000000004</v>
       </c>
     </row>
@@ -15041,7 +15057,7 @@
       <c r="A374" t="s">
         <v>787</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="3">
         <v>71.043000000000006</v>
       </c>
     </row>
@@ -15049,7 +15065,7 @@
       <c r="A375" t="s">
         <v>697</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="3">
         <v>71.040000000000006</v>
       </c>
     </row>
@@ -15057,7 +15073,7 @@
       <c r="A376" t="s">
         <v>185</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="3">
         <v>71.037000000000006</v>
       </c>
     </row>
@@ -15065,7 +15081,7 @@
       <c r="A377" t="s">
         <v>795</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="3">
         <v>70.942999999999998</v>
       </c>
     </row>
@@ -15073,7 +15089,7 @@
       <c r="A378" t="s">
         <v>781</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="3">
         <v>70.94</v>
       </c>
     </row>
@@ -15081,7 +15097,7 @@
       <c r="A379" t="s">
         <v>21</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="3">
         <v>70.930999999999997</v>
       </c>
     </row>
@@ -15089,7 +15105,7 @@
       <c r="A380" t="s">
         <v>682</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="3">
         <v>70.885999999999996</v>
       </c>
     </row>
@@ -15097,7 +15113,7 @@
       <c r="A381" t="s">
         <v>320</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="3">
         <v>70.863</v>
       </c>
     </row>
@@ -15105,7 +15121,7 @@
       <c r="A382" t="s">
         <v>301</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="3">
         <v>70.789000000000001</v>
       </c>
     </row>
@@ -15113,7 +15129,7 @@
       <c r="A383" t="s">
         <v>15</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="3">
         <v>70.765000000000001</v>
       </c>
     </row>
@@ -15121,7 +15137,7 @@
       <c r="A384" t="s">
         <v>741</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="3">
         <v>70.715000000000003</v>
       </c>
     </row>
@@ -15129,7 +15145,7 @@
       <c r="A385" t="s">
         <v>783</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="3">
         <v>70.644999999999996</v>
       </c>
     </row>
@@ -15137,7 +15153,7 @@
       <c r="A386" t="s">
         <v>700</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="3">
         <v>70.643000000000001</v>
       </c>
     </row>
@@ -15145,7 +15161,7 @@
       <c r="A387" t="s">
         <v>120</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="3">
         <v>70.638000000000005</v>
       </c>
     </row>
@@ -15153,7 +15169,7 @@
       <c r="A388" t="s">
         <v>567</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="3">
         <v>70.590999999999994</v>
       </c>
     </row>
@@ -15161,7 +15177,7 @@
       <c r="A389" t="s">
         <v>782</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="3">
         <v>70.548000000000002</v>
       </c>
     </row>
@@ -15169,7 +15185,7 @@
       <c r="A390" t="s">
         <v>765</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="3">
         <v>70.509</v>
       </c>
     </row>
@@ -15177,7 +15193,7 @@
       <c r="A391" t="s">
         <v>227</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="3">
         <v>70.492000000000004</v>
       </c>
     </row>
@@ -15185,7 +15201,7 @@
       <c r="A392" t="s">
         <v>44</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="3">
         <v>70.47</v>
       </c>
     </row>
@@ -15193,7 +15209,7 @@
       <c r="A393" t="s">
         <v>674</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="3">
         <v>70.444000000000003</v>
       </c>
     </row>
@@ -15201,7 +15217,7 @@
       <c r="A394" t="s">
         <v>777</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="3">
         <v>70.433000000000007</v>
       </c>
     </row>
@@ -15209,7 +15225,7 @@
       <c r="A395" t="s">
         <v>820</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="3">
         <v>70.412000000000006</v>
       </c>
     </row>
@@ -15217,7 +15233,7 @@
       <c r="A396" t="s">
         <v>304</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="3">
         <v>70.411000000000001</v>
       </c>
     </row>
@@ -15225,7 +15241,7 @@
       <c r="A397" t="s">
         <v>735</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="3">
         <v>70.385999999999996</v>
       </c>
     </row>
@@ -15233,7 +15249,7 @@
       <c r="A398" t="s">
         <v>102</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="3">
         <v>70.378</v>
       </c>
     </row>
@@ -15241,7 +15257,7 @@
       <c r="A399" t="s">
         <v>588</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="3">
         <v>70.361999999999995</v>
       </c>
     </row>
@@ -15249,7 +15265,7 @@
       <c r="A400" t="s">
         <v>321</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="3">
         <v>70.334000000000003</v>
       </c>
     </row>
@@ -15257,7 +15273,7 @@
       <c r="A401" t="s">
         <v>688</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="3">
         <v>70.277000000000001</v>
       </c>
     </row>
@@ -15265,7 +15281,7 @@
       <c r="A402" t="s">
         <v>799</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="3">
         <v>70.248999999999995</v>
       </c>
     </row>
@@ -15273,7 +15289,7 @@
       <c r="A403" t="s">
         <v>137</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="3">
         <v>70.212999999999994</v>
       </c>
     </row>
@@ -15281,7 +15297,7 @@
       <c r="A404" t="s">
         <v>609</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="3">
         <v>70.185000000000002</v>
       </c>
     </row>
@@ -15289,7 +15305,7 @@
       <c r="A405" t="s">
         <v>455</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="3">
         <v>70.119</v>
       </c>
     </row>
@@ -15297,7 +15313,7 @@
       <c r="A406" t="s">
         <v>766</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="3">
         <v>70.106999999999999</v>
       </c>
     </row>
@@ -15305,7 +15321,7 @@
       <c r="A407" t="s">
         <v>805</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="3">
         <v>70.02</v>
       </c>
     </row>
@@ -15313,7 +15329,7 @@
       <c r="A408" t="s">
         <v>101</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="3">
         <v>70.013999999999996</v>
       </c>
     </row>
@@ -15321,7 +15337,7 @@
       <c r="A409" t="s">
         <v>774</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="3">
         <v>70.013000000000005</v>
       </c>
     </row>
@@ -15329,7 +15345,7 @@
       <c r="A410" t="s">
         <v>109</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="3">
         <v>69.975999999999999</v>
       </c>
     </row>
@@ -15337,7 +15353,7 @@
       <c r="A411" t="s">
         <v>771</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="3">
         <v>69.933999999999997</v>
       </c>
     </row>
@@ -15345,7 +15361,7 @@
       <c r="A412" t="s">
         <v>147</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="3">
         <v>69.917000000000002</v>
       </c>
     </row>
@@ -15353,7 +15369,7 @@
       <c r="A413" t="s">
         <v>211</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="3">
         <v>69.909000000000006</v>
       </c>
     </row>
@@ -15361,7 +15377,7 @@
       <c r="A414" t="s">
         <v>822</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="3">
         <v>69.89</v>
       </c>
     </row>
@@ -15369,7 +15385,7 @@
       <c r="A415" t="s">
         <v>833</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="3">
         <v>69.858000000000004</v>
       </c>
     </row>
@@ -15377,7 +15393,7 @@
       <c r="A416" t="s">
         <v>812</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="3">
         <v>69.852999999999994</v>
       </c>
     </row>
@@ -15385,7 +15401,7 @@
       <c r="A417" t="s">
         <v>750</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="3">
         <v>69.834000000000003</v>
       </c>
     </row>
@@ -15393,7 +15409,7 @@
       <c r="A418" t="s">
         <v>398</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="3">
         <v>69.817999999999998</v>
       </c>
     </row>
@@ -15401,7 +15417,7 @@
       <c r="A419" t="s">
         <v>695</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="3">
         <v>69.817999999999998</v>
       </c>
     </row>
@@ -15409,7 +15425,7 @@
       <c r="A420" t="s">
         <v>417</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="3">
         <v>69.771000000000001</v>
       </c>
     </row>
@@ -15417,7 +15433,7 @@
       <c r="A421" t="s">
         <v>118</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="3">
         <v>69.753</v>
       </c>
     </row>
@@ -15425,7 +15441,7 @@
       <c r="A422" t="s">
         <v>106</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="3">
         <v>69.734999999999999</v>
       </c>
     </row>
@@ -15433,7 +15449,7 @@
       <c r="A423" t="s">
         <v>425</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="3">
         <v>69.73</v>
       </c>
     </row>
@@ -15441,7 +15457,7 @@
       <c r="A424" t="s">
         <v>426</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="3">
         <v>69.725999999999999</v>
       </c>
     </row>
@@ -15449,7 +15465,7 @@
       <c r="A425" t="s">
         <v>158</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="3">
         <v>69.688000000000002</v>
       </c>
     </row>
@@ -15457,7 +15473,7 @@
       <c r="A426" t="s">
         <v>738</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="3">
         <v>69.662000000000006</v>
       </c>
     </row>
@@ -15465,7 +15481,7 @@
       <c r="A427" t="s">
         <v>773</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="3">
         <v>69.611000000000004</v>
       </c>
     </row>
@@ -15473,7 +15489,7 @@
       <c r="A428" t="s">
         <v>22</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="3">
         <v>69.602000000000004</v>
       </c>
     </row>
@@ -15481,7 +15497,7 @@
       <c r="A429" t="s">
         <v>883</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="3">
         <v>69.593999999999994</v>
       </c>
     </row>
@@ -15489,7 +15505,7 @@
       <c r="A430" t="s">
         <v>689</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="3">
         <v>69.58</v>
       </c>
     </row>
@@ -15497,7 +15513,7 @@
       <c r="A431" t="s">
         <v>680</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="3">
         <v>69.55</v>
       </c>
     </row>
@@ -15505,7 +15521,7 @@
       <c r="A432" t="s">
         <v>577</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="3">
         <v>69.52</v>
       </c>
     </row>
@@ -15513,7 +15529,7 @@
       <c r="A433" t="s">
         <v>677</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="3">
         <v>69.429000000000002</v>
       </c>
     </row>
@@ -15521,7 +15537,7 @@
       <c r="A434" t="s">
         <v>753</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="3">
         <v>69.375</v>
       </c>
     </row>
@@ -15529,7 +15545,7 @@
       <c r="A435" t="s">
         <v>25</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="3">
         <v>69.361000000000004</v>
       </c>
     </row>
@@ -15537,7 +15553,7 @@
       <c r="A436" t="s">
         <v>108</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="3">
         <v>69.224999999999994</v>
       </c>
     </row>
@@ -15545,7 +15561,7 @@
       <c r="A437" t="s">
         <v>561</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="3">
         <v>69.177000000000007</v>
       </c>
     </row>
@@ -15553,7 +15569,7 @@
       <c r="A438" t="s">
         <v>84</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="3">
         <v>69.174000000000007</v>
       </c>
     </row>
@@ -15561,7 +15577,7 @@
       <c r="A439" t="s">
         <v>7</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="3">
         <v>69.159000000000006</v>
       </c>
     </row>
@@ -15569,7 +15585,7 @@
       <c r="A440" t="s">
         <v>589</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="3">
         <v>69.117999999999995</v>
       </c>
     </row>
@@ -15577,7 +15593,7 @@
       <c r="A441" t="s">
         <v>153</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="3">
         <v>69.114999999999995</v>
       </c>
     </row>
@@ -15585,7 +15601,7 @@
       <c r="A442" t="s">
         <v>736</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="3">
         <v>69.085999999999999</v>
       </c>
     </row>
@@ -15593,7 +15609,7 @@
       <c r="A443" t="s">
         <v>322</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="3">
         <v>69.082999999999998</v>
       </c>
     </row>
@@ -15601,7 +15617,7 @@
       <c r="A444" t="s">
         <v>816</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="3">
         <v>69.078000000000003</v>
       </c>
     </row>
@@ -15609,7 +15625,7 @@
       <c r="A445" t="s">
         <v>828</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="3">
         <v>69.075999999999993</v>
       </c>
     </row>
@@ -15617,7 +15633,7 @@
       <c r="A446" t="s">
         <v>53</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="3">
         <v>69.064999999999998</v>
       </c>
     </row>
@@ -15625,7 +15641,7 @@
       <c r="A447" t="s">
         <v>209</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="3">
         <v>68.995999999999995</v>
       </c>
     </row>
@@ -15633,7 +15649,7 @@
       <c r="A448" t="s">
         <v>880</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="3">
         <v>68.971999999999994</v>
       </c>
     </row>
@@ -15641,7 +15657,7 @@
       <c r="A449" t="s">
         <v>86</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="3">
         <v>68.971000000000004</v>
       </c>
     </row>
@@ -15649,7 +15665,7 @@
       <c r="A450" t="s">
         <v>350</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="3">
         <v>68.95</v>
       </c>
     </row>
@@ -15657,7 +15673,7 @@
       <c r="A451" t="s">
         <v>746</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="3">
         <v>68.938999999999993</v>
       </c>
     </row>
@@ -15665,7 +15681,7 @@
       <c r="A452" t="s">
         <v>197</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="3">
         <v>68.929000000000002</v>
       </c>
     </row>
@@ -15673,7 +15689,7 @@
       <c r="A453" t="s">
         <v>797</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="3">
         <v>68.819000000000003</v>
       </c>
     </row>
@@ -15681,7 +15697,7 @@
       <c r="A454" t="s">
         <v>747</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="3">
         <v>68.778000000000006</v>
       </c>
     </row>
@@ -15689,7 +15705,7 @@
       <c r="A455" t="s">
         <v>115</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="3">
         <v>68.748999999999995</v>
       </c>
     </row>
@@ -15697,7 +15713,7 @@
       <c r="A456" t="s">
         <v>778</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="3">
         <v>68.745999999999995</v>
       </c>
     </row>
@@ -15705,7 +15721,7 @@
       <c r="A457" t="s">
         <v>349</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="3">
         <v>68.718000000000004</v>
       </c>
     </row>
@@ -15713,7 +15729,7 @@
       <c r="A458" t="s">
         <v>10</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="3">
         <v>68.704999999999998</v>
       </c>
     </row>
@@ -15721,7 +15737,7 @@
       <c r="A459" t="s">
         <v>100</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="3">
         <v>68.697000000000003</v>
       </c>
     </row>
@@ -15729,7 +15745,7 @@
       <c r="A460" t="s">
         <v>980</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="3">
         <v>68.694999999999993</v>
       </c>
     </row>
@@ -15737,7 +15753,7 @@
       <c r="A461" t="s">
         <v>806</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="3">
         <v>68.572000000000003</v>
       </c>
     </row>
@@ -15745,7 +15761,7 @@
       <c r="A462" t="s">
         <v>621</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="3">
         <v>68.53</v>
       </c>
     </row>
@@ -15753,7 +15769,7 @@
       <c r="A463" t="s">
         <v>23</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="3">
         <v>68.503</v>
       </c>
     </row>
@@ -15761,7 +15777,7 @@
       <c r="A464" t="s">
         <v>90</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="3">
         <v>68.460999999999999</v>
       </c>
     </row>
@@ -15769,7 +15785,7 @@
       <c r="A465" t="s">
         <v>772</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="3">
         <v>68.352000000000004</v>
       </c>
     </row>
@@ -15777,7 +15793,7 @@
       <c r="A466" t="s">
         <v>543</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="3">
         <v>68.328999999999994</v>
       </c>
     </row>
@@ -15785,7 +15801,7 @@
       <c r="A467" t="s">
         <v>760</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="3">
         <v>68.265000000000001</v>
       </c>
     </row>
@@ -15793,7 +15809,7 @@
       <c r="A468" t="s">
         <v>763</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="3">
         <v>68.25</v>
       </c>
     </row>
@@ -15801,7 +15817,7 @@
       <c r="A469" t="s">
         <v>213</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="3">
         <v>68.248999999999995</v>
       </c>
     </row>
@@ -15809,7 +15825,7 @@
       <c r="A470" t="s">
         <v>325</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="3">
         <v>68.16</v>
       </c>
     </row>
@@ -15817,7 +15833,7 @@
       <c r="A471" t="s">
         <v>803</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="3">
         <v>68.117000000000004</v>
       </c>
     </row>
@@ -15825,7 +15841,7 @@
       <c r="A472" t="s">
         <v>672</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="3">
         <v>68.106999999999999</v>
       </c>
     </row>
@@ -15833,7 +15849,7 @@
       <c r="A473" t="s">
         <v>47</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="3">
         <v>68.102999999999994</v>
       </c>
     </row>
@@ -15841,7 +15857,7 @@
       <c r="A474" t="s">
         <v>835</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="3">
         <v>68.099000000000004</v>
       </c>
     </row>
@@ -15849,7 +15865,7 @@
       <c r="A475" t="s">
         <v>780</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="3">
         <v>68.081999999999994</v>
       </c>
     </row>
@@ -15857,7 +15873,7 @@
       <c r="A476" t="s">
         <v>767</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="3">
         <v>68.075000000000003</v>
       </c>
     </row>
@@ -15865,7 +15881,7 @@
       <c r="A477" t="s">
         <v>81</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="3">
         <v>68.027000000000001</v>
       </c>
     </row>
@@ -15873,7 +15889,7 @@
       <c r="A478" t="s">
         <v>624</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="3">
         <v>68.025999999999996</v>
       </c>
     </row>
@@ -15881,7 +15897,7 @@
       <c r="A479" t="s">
         <v>85</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="3">
         <v>68.013999999999996</v>
       </c>
     </row>
@@ -15889,7 +15905,7 @@
       <c r="A480" t="s">
         <v>670</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="3">
         <v>67.956999999999994</v>
       </c>
     </row>
@@ -15897,7 +15913,7 @@
       <c r="A481" t="s">
         <v>568</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="3">
         <v>67.948999999999998</v>
       </c>
     </row>
@@ -15905,7 +15921,7 @@
       <c r="A482" t="s">
         <v>230</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="3">
         <v>67.947999999999993</v>
       </c>
     </row>
@@ -15913,7 +15929,7 @@
       <c r="A483" t="s">
         <v>201</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="3">
         <v>67.748999999999995</v>
       </c>
     </row>
@@ -15921,7 +15937,7 @@
       <c r="A484" t="s">
         <v>692</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="3">
         <v>67.730999999999995</v>
       </c>
     </row>
@@ -15929,7 +15945,7 @@
       <c r="A485" t="s">
         <v>739</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="3">
         <v>67.673000000000002</v>
       </c>
     </row>
@@ -15937,7 +15953,7 @@
       <c r="A486" t="s">
         <v>817</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="3">
         <v>67.668999999999997</v>
       </c>
     </row>
@@ -15945,7 +15961,7 @@
       <c r="A487" t="s">
         <v>124</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="3">
         <v>67.662999999999997</v>
       </c>
     </row>
@@ -15953,7 +15969,7 @@
       <c r="A488" t="s">
         <v>189</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="3">
         <v>67.646000000000001</v>
       </c>
     </row>
@@ -15961,7 +15977,7 @@
       <c r="A489" t="s">
         <v>752</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="3">
         <v>67.638000000000005</v>
       </c>
     </row>
@@ -15969,7 +15985,7 @@
       <c r="A490" t="s">
         <v>318</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="3">
         <v>67.581000000000003</v>
       </c>
     </row>
@@ -15977,7 +15993,7 @@
       <c r="A491" t="s">
         <v>571</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="3">
         <v>67.546999999999997</v>
       </c>
     </row>
@@ -15985,7 +16001,7 @@
       <c r="A492" t="s">
         <v>305</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="3">
         <v>67.518000000000001</v>
       </c>
     </row>
@@ -15993,7 +16009,7 @@
       <c r="A493" t="s">
         <v>811</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="3">
         <v>67.507000000000005</v>
       </c>
     </row>
@@ -16001,7 +16017,7 @@
       <c r="A494" t="s">
         <v>794</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="3">
         <v>67.504000000000005</v>
       </c>
     </row>
@@ -16009,7 +16025,7 @@
       <c r="A495" t="s">
         <v>200</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="3">
         <v>67.453000000000003</v>
       </c>
     </row>
@@ -16017,7 +16033,7 @@
       <c r="A496" t="s">
         <v>702</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="3">
         <v>67.441999999999993</v>
       </c>
     </row>
@@ -16025,7 +16041,7 @@
       <c r="A497" t="s">
         <v>676</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="3">
         <v>67.41</v>
       </c>
     </row>
@@ -16033,7 +16049,7 @@
       <c r="A498" t="s">
         <v>566</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="3">
         <v>67.322000000000003</v>
       </c>
     </row>
@@ -16041,7 +16057,7 @@
       <c r="A499" t="s">
         <v>346</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="3">
         <v>67.257000000000005</v>
       </c>
     </row>
@@ -16049,7 +16065,7 @@
       <c r="A500" t="s">
         <v>701</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="3">
         <v>67.227999999999994</v>
       </c>
     </row>
@@ -16057,7 +16073,7 @@
       <c r="A501" t="s">
         <v>311</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="3">
         <v>67.224000000000004</v>
       </c>
     </row>
@@ -16065,7 +16081,7 @@
       <c r="A502" t="s">
         <v>813</v>
       </c>
-      <c r="B502" s="1">
+      <c r="B502" s="3">
         <v>67.221000000000004</v>
       </c>
     </row>
@@ -16073,7 +16089,7 @@
       <c r="A503" t="s">
         <v>219</v>
       </c>
-      <c r="B503" s="1">
+      <c r="B503" s="3">
         <v>67.218999999999994</v>
       </c>
     </row>
@@ -16081,7 +16097,7 @@
       <c r="A504" t="s">
         <v>294</v>
       </c>
-      <c r="B504" s="1">
+      <c r="B504" s="3">
         <v>67.171999999999997</v>
       </c>
     </row>
@@ -16089,7 +16105,7 @@
       <c r="A505" t="s">
         <v>606</v>
       </c>
-      <c r="B505" s="1">
+      <c r="B505" s="3">
         <v>67.155000000000001</v>
       </c>
     </row>
@@ -16097,7 +16113,7 @@
       <c r="A506" t="s">
         <v>981</v>
       </c>
-      <c r="B506" s="1">
+      <c r="B506" s="3">
         <v>67.153999999999996</v>
       </c>
     </row>
@@ -16105,7 +16121,7 @@
       <c r="A507" t="s">
         <v>800</v>
       </c>
-      <c r="B507" s="1">
+      <c r="B507" s="3">
         <v>67.141999999999996</v>
       </c>
     </row>
@@ -16113,7 +16129,7 @@
       <c r="A508" t="s">
         <v>302</v>
       </c>
-      <c r="B508" s="1">
+      <c r="B508" s="3">
         <v>67.063000000000002</v>
       </c>
     </row>
@@ -16121,7 +16137,7 @@
       <c r="A509" t="s">
         <v>169</v>
       </c>
-      <c r="B509" s="1">
+      <c r="B509" s="3">
         <v>67.010000000000005</v>
       </c>
     </row>
@@ -16129,7 +16145,7 @@
       <c r="A510" t="s">
         <v>930</v>
       </c>
-      <c r="B510" s="1">
+      <c r="B510" s="3">
         <v>67</v>
       </c>
     </row>
@@ -16137,7 +16153,7 @@
       <c r="A511" t="s">
         <v>1</v>
       </c>
-      <c r="B511" s="1">
+      <c r="B511" s="3">
         <v>66.956000000000003</v>
       </c>
     </row>
@@ -16145,7 +16161,7 @@
       <c r="A512" t="s">
         <v>4</v>
       </c>
-      <c r="B512" s="1">
+      <c r="B512" s="3">
         <v>66.947999999999993</v>
       </c>
     </row>
@@ -16153,7 +16169,7 @@
       <c r="A513" t="s">
         <v>324</v>
       </c>
-      <c r="B513" s="1">
+      <c r="B513" s="3">
         <v>66.938999999999993</v>
       </c>
     </row>
@@ -16161,7 +16177,7 @@
       <c r="A514" t="s">
         <v>421</v>
       </c>
-      <c r="B514" s="1">
+      <c r="B514" s="3">
         <v>66.906999999999996</v>
       </c>
     </row>
@@ -16169,7 +16185,7 @@
       <c r="A515" t="s">
         <v>737</v>
       </c>
-      <c r="B515" s="1">
+      <c r="B515" s="3">
         <v>66.891000000000005</v>
       </c>
     </row>
@@ -16177,7 +16193,7 @@
       <c r="A516" t="s">
         <v>107</v>
       </c>
-      <c r="B516" s="1">
+      <c r="B516" s="3">
         <v>66.888999999999996</v>
       </c>
     </row>
@@ -16185,7 +16201,7 @@
       <c r="A517" t="s">
         <v>587</v>
       </c>
-      <c r="B517" s="1">
+      <c r="B517" s="3">
         <v>66.873000000000005</v>
       </c>
     </row>
@@ -16193,7 +16209,7 @@
       <c r="A518" t="s">
         <v>823</v>
       </c>
-      <c r="B518" s="1">
+      <c r="B518" s="3">
         <v>66.804000000000002</v>
       </c>
     </row>
@@ -16201,7 +16217,7 @@
       <c r="A519" t="s">
         <v>14</v>
       </c>
-      <c r="B519" s="1">
+      <c r="B519" s="3">
         <v>66.760999999999996</v>
       </c>
     </row>
@@ -16209,7 +16225,7 @@
       <c r="A520" t="s">
         <v>204</v>
       </c>
-      <c r="B520" s="1">
+      <c r="B520" s="3">
         <v>66.647999999999996</v>
       </c>
     </row>
@@ -16217,7 +16233,7 @@
       <c r="A521" t="s">
         <v>950</v>
       </c>
-      <c r="B521" s="1">
+      <c r="B521" s="3">
         <v>66.596999999999994</v>
       </c>
     </row>
@@ -16225,7 +16241,7 @@
       <c r="A522" t="s">
         <v>8</v>
       </c>
-      <c r="B522" s="1">
+      <c r="B522" s="3">
         <v>66.543000000000006</v>
       </c>
     </row>
@@ -16233,7 +16249,7 @@
       <c r="A523" t="s">
         <v>202</v>
       </c>
-      <c r="B523" s="1">
+      <c r="B523" s="3">
         <v>66.531000000000006</v>
       </c>
     </row>
@@ -16241,7 +16257,7 @@
       <c r="A524" t="s">
         <v>785</v>
       </c>
-      <c r="B524" s="1">
+      <c r="B524" s="3">
         <v>66.512</v>
       </c>
     </row>
@@ -16249,7 +16265,7 @@
       <c r="A525" t="s">
         <v>686</v>
       </c>
-      <c r="B525" s="1">
+      <c r="B525" s="3">
         <v>66.484999999999999</v>
       </c>
     </row>
@@ -16257,7 +16273,7 @@
       <c r="A526" t="s">
         <v>150</v>
       </c>
-      <c r="B526" s="1">
+      <c r="B526" s="3">
         <v>66.465999999999994</v>
       </c>
     </row>
@@ -16265,7 +16281,7 @@
       <c r="A527" t="s">
         <v>748</v>
       </c>
-      <c r="B527" s="1">
+      <c r="B527" s="3">
         <v>66.462000000000003</v>
       </c>
     </row>
@@ -16273,7 +16289,7 @@
       <c r="A528" t="s">
         <v>584</v>
       </c>
-      <c r="B528" s="1">
+      <c r="B528" s="3">
         <v>66.453000000000003</v>
       </c>
     </row>
@@ -16281,7 +16297,7 @@
       <c r="A529" t="s">
         <v>638</v>
       </c>
-      <c r="B529" s="1">
+      <c r="B529" s="3">
         <v>66.429000000000002</v>
       </c>
     </row>
@@ -16289,7 +16305,7 @@
       <c r="A530" t="s">
         <v>947</v>
       </c>
-      <c r="B530" s="1">
+      <c r="B530" s="3">
         <v>66.381</v>
       </c>
     </row>
@@ -16297,7 +16313,7 @@
       <c r="A531" t="s">
         <v>642</v>
       </c>
-      <c r="B531" s="1">
+      <c r="B531" s="3">
         <v>66.373999999999995</v>
       </c>
     </row>
@@ -16305,7 +16321,7 @@
       <c r="A532" t="s">
         <v>149</v>
       </c>
-      <c r="B532" s="1">
+      <c r="B532" s="3">
         <v>66.350999999999999</v>
       </c>
     </row>
@@ -16313,7 +16329,7 @@
       <c r="A533" t="s">
         <v>592</v>
       </c>
-      <c r="B533" s="1">
+      <c r="B533" s="3">
         <v>66.281999999999996</v>
       </c>
     </row>
@@ -16321,7 +16337,7 @@
       <c r="A534" t="s">
         <v>678</v>
       </c>
-      <c r="B534" s="1">
+      <c r="B534" s="3">
         <v>66.278999999999996</v>
       </c>
     </row>
@@ -16329,7 +16345,7 @@
       <c r="A535" t="s">
         <v>585</v>
       </c>
-      <c r="B535" s="1">
+      <c r="B535" s="3">
         <v>66.272000000000006</v>
       </c>
     </row>
@@ -16337,7 +16353,7 @@
       <c r="A536" t="s">
         <v>194</v>
       </c>
-      <c r="B536" s="1">
+      <c r="B536" s="3">
         <v>66.108000000000004</v>
       </c>
     </row>
@@ -16345,7 +16361,7 @@
       <c r="A537" t="s">
         <v>326</v>
       </c>
-      <c r="B537" s="1">
+      <c r="B537" s="3">
         <v>66.064999999999998</v>
       </c>
     </row>
@@ -16353,7 +16369,7 @@
       <c r="A538" t="s">
         <v>927</v>
       </c>
-      <c r="B538" s="1">
+      <c r="B538" s="3">
         <v>66.034000000000006</v>
       </c>
     </row>
@@ -16361,7 +16377,7 @@
       <c r="A539" t="s">
         <v>591</v>
       </c>
-      <c r="B539" s="1">
+      <c r="B539" s="3">
         <v>66.027000000000001</v>
       </c>
     </row>
@@ -16369,7 +16385,7 @@
       <c r="A540" t="s">
         <v>220</v>
       </c>
-      <c r="B540" s="1">
+      <c r="B540" s="3">
         <v>65.980999999999995</v>
       </c>
     </row>
@@ -16377,7 +16393,7 @@
       <c r="A541" t="s">
         <v>323</v>
       </c>
-      <c r="B541" s="1">
+      <c r="B541" s="3">
         <v>65.965000000000003</v>
       </c>
     </row>
@@ -16385,7 +16401,7 @@
       <c r="A542" t="s">
         <v>41</v>
       </c>
-      <c r="B542" s="1">
+      <c r="B542" s="3">
         <v>65.938000000000002</v>
       </c>
     </row>
@@ -16393,7 +16409,7 @@
       <c r="A543" t="s">
         <v>69</v>
       </c>
-      <c r="B543" s="1">
+      <c r="B543" s="3">
         <v>65.864000000000004</v>
       </c>
     </row>
@@ -16401,7 +16417,7 @@
       <c r="A544" t="s">
         <v>630</v>
       </c>
-      <c r="B544" s="1">
+      <c r="B544" s="3">
         <v>65.856999999999999</v>
       </c>
     </row>
@@ -16409,7 +16425,7 @@
       <c r="A545" t="s">
         <v>182</v>
       </c>
-      <c r="B545" s="1">
+      <c r="B545" s="3">
         <v>65.837000000000003</v>
       </c>
     </row>
@@ -16417,7 +16433,7 @@
       <c r="A546" t="s">
         <v>667</v>
       </c>
-      <c r="B546" s="1">
+      <c r="B546" s="3">
         <v>65.828999999999994</v>
       </c>
     </row>
@@ -16425,7 +16441,7 @@
       <c r="A547" t="s">
         <v>5</v>
       </c>
-      <c r="B547" s="1">
+      <c r="B547" s="3">
         <v>65.823999999999998</v>
       </c>
     </row>
@@ -16433,7 +16449,7 @@
       <c r="A548" t="s">
         <v>6</v>
       </c>
-      <c r="B548" s="1">
+      <c r="B548" s="3">
         <v>65.819999999999993</v>
       </c>
     </row>
@@ -16441,7 +16457,7 @@
       <c r="A549" t="s">
         <v>13</v>
       </c>
-      <c r="B549" s="1">
+      <c r="B549" s="3">
         <v>65.816999999999993</v>
       </c>
     </row>
@@ -16449,7 +16465,7 @@
       <c r="A550" t="s">
         <v>616</v>
       </c>
-      <c r="B550" s="1">
+      <c r="B550" s="3">
         <v>65.790999999999997</v>
       </c>
     </row>
@@ -16457,7 +16473,7 @@
       <c r="A551" t="s">
         <v>59</v>
       </c>
-      <c r="B551" s="1">
+      <c r="B551" s="3">
         <v>65.745000000000005</v>
       </c>
     </row>
@@ -16465,7 +16481,7 @@
       <c r="A552" t="s">
         <v>832</v>
       </c>
-      <c r="B552" s="1">
+      <c r="B552" s="3">
         <v>65.744</v>
       </c>
     </row>
@@ -16473,7 +16489,7 @@
       <c r="A553" t="s">
         <v>553</v>
       </c>
-      <c r="B553" s="1">
+      <c r="B553" s="3">
         <v>65.704999999999998</v>
       </c>
     </row>
@@ -16481,7 +16497,7 @@
       <c r="A554" t="s">
         <v>768</v>
       </c>
-      <c r="B554" s="1">
+      <c r="B554" s="3">
         <v>65.677999999999997</v>
       </c>
     </row>
@@ -16489,7 +16505,7 @@
       <c r="A555" t="s">
         <v>696</v>
       </c>
-      <c r="B555" s="1">
+      <c r="B555" s="3">
         <v>65.662000000000006</v>
       </c>
     </row>
@@ -16497,7 +16513,7 @@
       <c r="A556" t="s">
         <v>776</v>
       </c>
-      <c r="B556" s="1">
+      <c r="B556" s="3">
         <v>65.611000000000004</v>
       </c>
     </row>
@@ -16505,7 +16521,7 @@
       <c r="A557" t="s">
         <v>751</v>
       </c>
-      <c r="B557" s="1">
+      <c r="B557" s="3">
         <v>65.606999999999999</v>
       </c>
     </row>
@@ -16513,7 +16529,7 @@
       <c r="A558" t="s">
         <v>834</v>
       </c>
-      <c r="B558" s="1">
+      <c r="B558" s="3">
         <v>65.584999999999994</v>
       </c>
     </row>
@@ -16521,7 +16537,7 @@
       <c r="A559" t="s">
         <v>681</v>
       </c>
-      <c r="B559" s="1">
+      <c r="B559" s="3">
         <v>65.546999999999997</v>
       </c>
     </row>
@@ -16529,7 +16545,7 @@
       <c r="A560" t="s">
         <v>590</v>
       </c>
-      <c r="B560" s="1">
+      <c r="B560" s="3">
         <v>65.513999999999996</v>
       </c>
     </row>
@@ -16537,7 +16553,7 @@
       <c r="A561" t="s">
         <v>784</v>
       </c>
-      <c r="B561" s="1">
+      <c r="B561" s="3">
         <v>65.450999999999993</v>
       </c>
     </row>
@@ -16545,7 +16561,7 @@
       <c r="A562" t="s">
         <v>791</v>
       </c>
-      <c r="B562" s="1">
+      <c r="B562" s="3">
         <v>65.447999999999993</v>
       </c>
     </row>
@@ -16553,7 +16569,7 @@
       <c r="A563" t="s">
         <v>277</v>
       </c>
-      <c r="B563" s="1">
+      <c r="B563" s="3">
         <v>65.403999999999996</v>
       </c>
     </row>
@@ -16561,7 +16577,7 @@
       <c r="A564" t="s">
         <v>121</v>
       </c>
-      <c r="B564" s="1">
+      <c r="B564" s="3">
         <v>65.347999999999999</v>
       </c>
     </row>
@@ -16569,7 +16585,7 @@
       <c r="A565" t="s">
         <v>683</v>
       </c>
-      <c r="B565" s="1">
+      <c r="B565" s="3">
         <v>65.27</v>
       </c>
     </row>
@@ -16577,7 +16593,7 @@
       <c r="A566" t="s">
         <v>554</v>
       </c>
-      <c r="B566" s="1">
+      <c r="B566" s="3">
         <v>65.007000000000005</v>
       </c>
     </row>
@@ -16585,7 +16601,7 @@
       <c r="A567" t="s">
         <v>603</v>
       </c>
-      <c r="B567" s="1">
+      <c r="B567" s="3">
         <v>65.004000000000005</v>
       </c>
     </row>
@@ -16593,7 +16609,7 @@
       <c r="A568" t="s">
         <v>173</v>
       </c>
-      <c r="B568" s="1">
+      <c r="B568" s="3">
         <v>64.893000000000001</v>
       </c>
     </row>
@@ -16601,7 +16617,7 @@
       <c r="A569" t="s">
         <v>593</v>
       </c>
-      <c r="B569" s="1">
+      <c r="B569" s="3">
         <v>64.891000000000005</v>
       </c>
     </row>
@@ -16609,7 +16625,7 @@
       <c r="A570" t="s">
         <v>639</v>
       </c>
-      <c r="B570" s="1">
+      <c r="B570" s="3">
         <v>64.89</v>
       </c>
     </row>
@@ -16617,7 +16633,7 @@
       <c r="A571" t="s">
         <v>208</v>
       </c>
-      <c r="B571" s="1">
+      <c r="B571" s="3">
         <v>64.816999999999993</v>
       </c>
     </row>
@@ -16625,7 +16641,7 @@
       <c r="A572" t="s">
         <v>570</v>
       </c>
-      <c r="B572" s="1">
+      <c r="B572" s="3">
         <v>64.813000000000002</v>
       </c>
     </row>
@@ -16633,7 +16649,7 @@
       <c r="A573" t="s">
         <v>569</v>
       </c>
-      <c r="B573" s="1">
+      <c r="B573" s="3">
         <v>64.768000000000001</v>
       </c>
     </row>
@@ -16641,7 +16657,7 @@
       <c r="A574" t="s">
         <v>207</v>
       </c>
-      <c r="B574" s="1">
+      <c r="B574" s="3">
         <v>64.744</v>
       </c>
     </row>
@@ -16649,7 +16665,7 @@
       <c r="A575" t="s">
         <v>576</v>
       </c>
-      <c r="B575" s="1">
+      <c r="B575" s="3">
         <v>64.733000000000004</v>
       </c>
     </row>
@@ -16657,7 +16673,7 @@
       <c r="A576" t="s">
         <v>199</v>
       </c>
-      <c r="B576" s="1">
+      <c r="B576" s="3">
         <v>64.715999999999994</v>
       </c>
     </row>
@@ -16665,7 +16681,7 @@
       <c r="A577" t="s">
         <v>171</v>
       </c>
-      <c r="B577" s="1">
+      <c r="B577" s="3">
         <v>64.694000000000003</v>
       </c>
     </row>
@@ -16673,7 +16689,7 @@
       <c r="A578" t="s">
         <v>691</v>
       </c>
-      <c r="B578" s="1">
+      <c r="B578" s="3">
         <v>64.614999999999995</v>
       </c>
     </row>
@@ -16681,7 +16697,7 @@
       <c r="A579" t="s">
         <v>196</v>
       </c>
-      <c r="B579" s="1">
+      <c r="B579" s="3">
         <v>64.594999999999999</v>
       </c>
     </row>
@@ -16689,7 +16705,7 @@
       <c r="A580" t="s">
         <v>807</v>
       </c>
-      <c r="B580" s="1">
+      <c r="B580" s="3">
         <v>64.477999999999994</v>
       </c>
     </row>
@@ -16697,7 +16713,7 @@
       <c r="A581" t="s">
         <v>694</v>
       </c>
-      <c r="B581" s="1">
+      <c r="B581" s="3">
         <v>64.47</v>
       </c>
     </row>
@@ -16705,7 +16721,7 @@
       <c r="A582" t="s">
         <v>303</v>
       </c>
-      <c r="B582" s="1">
+      <c r="B582" s="3">
         <v>64.466999999999999</v>
       </c>
     </row>
@@ -16713,7 +16729,7 @@
       <c r="A583" t="s">
         <v>586</v>
       </c>
-      <c r="B583" s="1">
+      <c r="B583" s="3">
         <v>64.41</v>
       </c>
     </row>
@@ -16721,7 +16737,7 @@
       <c r="A584" t="s">
         <v>622</v>
       </c>
-      <c r="B584" s="1">
+      <c r="B584" s="3">
         <v>64.375</v>
       </c>
     </row>
@@ -16729,7 +16745,7 @@
       <c r="A585" t="s">
         <v>97</v>
       </c>
-      <c r="B585" s="1">
+      <c r="B585" s="3">
         <v>64.346000000000004</v>
       </c>
     </row>
@@ -16737,7 +16753,7 @@
       <c r="A586" t="s">
         <v>615</v>
       </c>
-      <c r="B586" s="1">
+      <c r="B586" s="3">
         <v>64.322000000000003</v>
       </c>
     </row>
@@ -16745,7 +16761,7 @@
       <c r="A587" t="s">
         <v>926</v>
       </c>
-      <c r="B587" s="1">
+      <c r="B587" s="3">
         <v>64.215000000000003</v>
       </c>
     </row>
@@ -16753,7 +16769,7 @@
       <c r="A588" t="s">
         <v>167</v>
       </c>
-      <c r="B588" s="1">
+      <c r="B588" s="3">
         <v>64.111000000000004</v>
       </c>
     </row>
@@ -16761,7 +16777,7 @@
       <c r="A589" t="s">
         <v>159</v>
       </c>
-      <c r="B589" s="1">
+      <c r="B589" s="3">
         <v>64.090999999999994</v>
       </c>
     </row>
@@ -16769,7 +16785,7 @@
       <c r="A590" t="s">
         <v>166</v>
       </c>
-      <c r="B590" s="1">
+      <c r="B590" s="3">
         <v>64.084999999999994</v>
       </c>
     </row>
@@ -16777,7 +16793,7 @@
       <c r="A591" t="s">
         <v>556</v>
       </c>
-      <c r="B591" s="1">
+      <c r="B591" s="3">
         <v>64.066000000000003</v>
       </c>
     </row>
@@ -16785,7 +16801,7 @@
       <c r="A592" t="s">
         <v>563</v>
       </c>
-      <c r="B592" s="1">
+      <c r="B592" s="3">
         <v>64.06</v>
       </c>
     </row>
@@ -16793,7 +16809,7 @@
       <c r="A593" t="s">
         <v>580</v>
       </c>
-      <c r="B593" s="1">
+      <c r="B593" s="3">
         <v>64.06</v>
       </c>
     </row>
@@ -16801,7 +16817,7 @@
       <c r="A594" t="s">
         <v>641</v>
       </c>
-      <c r="B594" s="1">
+      <c r="B594" s="3">
         <v>64.031000000000006</v>
       </c>
     </row>
@@ -16809,7 +16825,7 @@
       <c r="A595" t="s">
         <v>28</v>
       </c>
-      <c r="B595" s="1">
+      <c r="B595" s="3">
         <v>64</v>
       </c>
     </row>
@@ -16817,7 +16833,7 @@
       <c r="A596" t="s">
         <v>162</v>
       </c>
-      <c r="B596" s="1">
+      <c r="B596" s="3">
         <v>63.98</v>
       </c>
     </row>
@@ -16825,7 +16841,7 @@
       <c r="A597" t="s">
         <v>643</v>
       </c>
-      <c r="B597" s="1">
+      <c r="B597" s="3">
         <v>63.927</v>
       </c>
     </row>
@@ -16833,7 +16849,7 @@
       <c r="A598" t="s">
         <v>172</v>
       </c>
-      <c r="B598" s="1">
+      <c r="B598" s="3">
         <v>63.920999999999999</v>
       </c>
     </row>
@@ -16841,7 +16857,7 @@
       <c r="A599" t="s">
         <v>631</v>
       </c>
-      <c r="B599" s="1">
+      <c r="B599" s="3">
         <v>63.896999999999998</v>
       </c>
     </row>
@@ -16849,7 +16865,7 @@
       <c r="A600" t="s">
         <v>595</v>
       </c>
-      <c r="B600" s="1">
+      <c r="B600" s="3">
         <v>63.859000000000002</v>
       </c>
     </row>
@@ -16857,7 +16873,7 @@
       <c r="A601" t="s">
         <v>836</v>
       </c>
-      <c r="B601" s="1">
+      <c r="B601" s="3">
         <v>63.854999999999997</v>
       </c>
     </row>
@@ -16865,7 +16881,7 @@
       <c r="A602" t="s">
         <v>944</v>
       </c>
-      <c r="B602" s="1">
+      <c r="B602" s="3">
         <v>63.835000000000001</v>
       </c>
     </row>
@@ -16873,7 +16889,7 @@
       <c r="A603" t="s">
         <v>188</v>
       </c>
-      <c r="B603" s="1">
+      <c r="B603" s="3">
         <v>63.783999999999999</v>
       </c>
     </row>
@@ -16881,7 +16897,7 @@
       <c r="A604" t="s">
         <v>618</v>
       </c>
-      <c r="B604" s="1">
+      <c r="B604" s="3">
         <v>63.735999999999997</v>
       </c>
     </row>
@@ -16889,7 +16905,7 @@
       <c r="A605" t="s">
         <v>929</v>
       </c>
-      <c r="B605" s="1">
+      <c r="B605" s="3">
         <v>63.704999999999998</v>
       </c>
     </row>
@@ -16897,7 +16913,7 @@
       <c r="A606" t="s">
         <v>278</v>
       </c>
-      <c r="B606" s="1">
+      <c r="B606" s="3">
         <v>63.691000000000003</v>
       </c>
     </row>
@@ -16905,7 +16921,7 @@
       <c r="A607" t="s">
         <v>562</v>
       </c>
-      <c r="B607" s="1">
+      <c r="B607" s="3">
         <v>63.674999999999997</v>
       </c>
     </row>
@@ -16913,7 +16929,7 @@
       <c r="A608" t="s">
         <v>594</v>
       </c>
-      <c r="B608" s="1">
+      <c r="B608" s="3">
         <v>63.67</v>
       </c>
     </row>
@@ -16921,7 +16937,7 @@
       <c r="A609" t="s">
         <v>163</v>
       </c>
-      <c r="B609" s="1">
+      <c r="B609" s="3">
         <v>63.667000000000002</v>
       </c>
     </row>
@@ -16929,7 +16945,7 @@
       <c r="A610" t="s">
         <v>12</v>
       </c>
-      <c r="B610" s="1">
+      <c r="B610" s="3">
         <v>63.612000000000002</v>
       </c>
     </row>
@@ -16937,7 +16953,7 @@
       <c r="A611" t="s">
         <v>757</v>
       </c>
-      <c r="B611" s="1">
+      <c r="B611" s="3">
         <v>63.606999999999999</v>
       </c>
     </row>
@@ -16945,7 +16961,7 @@
       <c r="A612" t="s">
         <v>769</v>
       </c>
-      <c r="B612" s="1">
+      <c r="B612" s="3">
         <v>63.581000000000003</v>
       </c>
     </row>
@@ -16953,7 +16969,7 @@
       <c r="A613" t="s">
         <v>103</v>
       </c>
-      <c r="B613" s="1">
+      <c r="B613" s="3">
         <v>63.548000000000002</v>
       </c>
     </row>
@@ -16961,7 +16977,7 @@
       <c r="A614" t="s">
         <v>314</v>
       </c>
-      <c r="B614" s="1">
+      <c r="B614" s="3">
         <v>63.527999999999999</v>
       </c>
     </row>
@@ -16969,7 +16985,7 @@
       <c r="A615" t="s">
         <v>99</v>
       </c>
-      <c r="B615" s="1">
+      <c r="B615" s="3">
         <v>63.402000000000001</v>
       </c>
     </row>
@@ -16977,7 +16993,7 @@
       <c r="A616" t="s">
         <v>573</v>
       </c>
-      <c r="B616" s="1">
+      <c r="B616" s="3">
         <v>63.348999999999997</v>
       </c>
     </row>
@@ -16985,7 +17001,7 @@
       <c r="A617" t="s">
         <v>574</v>
       </c>
-      <c r="B617" s="1">
+      <c r="B617" s="3">
         <v>63.34</v>
       </c>
     </row>
@@ -16993,7 +17009,7 @@
       <c r="A618" t="s">
         <v>152</v>
       </c>
-      <c r="B618" s="1">
+      <c r="B618" s="3">
         <v>63.265999999999998</v>
       </c>
     </row>
@@ -17001,7 +17017,7 @@
       <c r="A619" t="s">
         <v>2</v>
       </c>
-      <c r="B619" s="1">
+      <c r="B619" s="3">
         <v>63.194000000000003</v>
       </c>
     </row>
@@ -17009,7 +17025,7 @@
       <c r="A620" t="s">
         <v>789</v>
       </c>
-      <c r="B620" s="1">
+      <c r="B620" s="3">
         <v>63.164000000000001</v>
       </c>
     </row>
@@ -17017,7 +17033,7 @@
       <c r="A621" t="s">
         <v>184</v>
       </c>
-      <c r="B621" s="1">
+      <c r="B621" s="3">
         <v>63.119</v>
       </c>
     </row>
@@ -17025,7 +17041,7 @@
       <c r="A622" t="s">
         <v>280</v>
       </c>
-      <c r="B622" s="1">
+      <c r="B622" s="3">
         <v>63.058</v>
       </c>
     </row>
@@ -17033,7 +17049,7 @@
       <c r="A623" t="s">
         <v>625</v>
       </c>
-      <c r="B623" s="1">
+      <c r="B623" s="3">
         <v>62.972999999999999</v>
       </c>
     </row>
@@ -17041,7 +17057,7 @@
       <c r="A624" t="s">
         <v>9</v>
       </c>
-      <c r="B624" s="1">
+      <c r="B624" s="3">
         <v>62.948</v>
       </c>
     </row>
@@ -17049,7 +17065,7 @@
       <c r="A625" t="s">
         <v>749</v>
       </c>
-      <c r="B625" s="1">
+      <c r="B625" s="3">
         <v>62.932000000000002</v>
       </c>
     </row>
@@ -17057,7 +17073,7 @@
       <c r="A626" t="s">
         <v>627</v>
       </c>
-      <c r="B626" s="1">
+      <c r="B626" s="3">
         <v>62.920999999999999</v>
       </c>
     </row>
@@ -17065,7 +17081,7 @@
       <c r="A627" t="s">
         <v>636</v>
       </c>
-      <c r="B627" s="1">
+      <c r="B627" s="3">
         <v>62.890999999999998</v>
       </c>
     </row>
@@ -17073,7 +17089,7 @@
       <c r="A628" t="s">
         <v>572</v>
       </c>
-      <c r="B628" s="1">
+      <c r="B628" s="3">
         <v>62.89</v>
       </c>
     </row>
@@ -17081,7 +17097,7 @@
       <c r="A629" t="s">
         <v>179</v>
       </c>
-      <c r="B629" s="1">
+      <c r="B629" s="3">
         <v>62.731000000000002</v>
       </c>
     </row>
@@ -17089,7 +17105,7 @@
       <c r="A630" t="s">
         <v>170</v>
       </c>
-      <c r="B630" s="1">
+      <c r="B630" s="3">
         <v>62.691000000000003</v>
       </c>
     </row>
@@ -17097,7 +17113,7 @@
       <c r="A631" t="s">
         <v>839</v>
       </c>
-      <c r="B631" s="1">
+      <c r="B631" s="3">
         <v>62.531999999999996</v>
       </c>
     </row>
@@ -17105,7 +17121,7 @@
       <c r="A632" t="s">
         <v>758</v>
       </c>
-      <c r="B632" s="1">
+      <c r="B632" s="3">
         <v>62.435000000000002</v>
       </c>
     </row>
@@ -17113,7 +17129,7 @@
       <c r="A633" t="s">
         <v>815</v>
       </c>
-      <c r="B633" s="1">
+      <c r="B633" s="3">
         <v>62.404000000000003</v>
       </c>
     </row>
@@ -17121,7 +17137,7 @@
       <c r="A634" t="s">
         <v>565</v>
       </c>
-      <c r="B634" s="1">
+      <c r="B634" s="3">
         <v>62.237000000000002</v>
       </c>
     </row>
@@ -17129,7 +17145,7 @@
       <c r="A635" t="s">
         <v>284</v>
       </c>
-      <c r="B635" s="1">
+      <c r="B635" s="3">
         <v>62.158999999999999</v>
       </c>
     </row>
@@ -17137,7 +17153,7 @@
       <c r="A636" t="s">
         <v>281</v>
       </c>
-      <c r="B636" s="1">
+      <c r="B636" s="3">
         <v>62.152999999999999</v>
       </c>
     </row>
@@ -17145,7 +17161,7 @@
       <c r="A637" t="s">
         <v>626</v>
       </c>
-      <c r="B637" s="1">
+      <c r="B637" s="3">
         <v>62.148000000000003</v>
       </c>
     </row>
@@ -17153,7 +17169,7 @@
       <c r="A638" t="s">
         <v>193</v>
       </c>
-      <c r="B638" s="1">
+      <c r="B638" s="3">
         <v>62.134</v>
       </c>
     </row>
@@ -17161,7 +17177,7 @@
       <c r="A639" t="s">
         <v>462</v>
       </c>
-      <c r="B639" s="1">
+      <c r="B639" s="3">
         <v>62.122</v>
       </c>
     </row>
@@ -17169,7 +17185,7 @@
       <c r="A640" t="s">
         <v>183</v>
       </c>
-      <c r="B640" s="1">
+      <c r="B640" s="3">
         <v>62.08</v>
       </c>
     </row>
@@ -17177,7 +17193,7 @@
       <c r="A641" t="s">
         <v>287</v>
       </c>
-      <c r="B641" s="1">
+      <c r="B641" s="3">
         <v>61.957000000000001</v>
       </c>
     </row>
@@ -17185,7 +17201,7 @@
       <c r="A642" t="s">
         <v>693</v>
       </c>
-      <c r="B642" s="1">
+      <c r="B642" s="3">
         <v>61.887999999999998</v>
       </c>
     </row>
@@ -17193,7 +17209,7 @@
       <c r="A643" t="s">
         <v>96</v>
       </c>
-      <c r="B643" s="1">
+      <c r="B643" s="3">
         <v>61.883000000000003</v>
       </c>
     </row>
@@ -17201,7 +17217,7 @@
       <c r="A644" t="s">
         <v>628</v>
       </c>
-      <c r="B644" s="1">
+      <c r="B644" s="3">
         <v>61.84</v>
       </c>
     </row>
@@ -17209,7 +17225,7 @@
       <c r="A645" t="s">
         <v>46</v>
       </c>
-      <c r="B645" s="1">
+      <c r="B645" s="3">
         <v>61.808</v>
       </c>
     </row>
@@ -17217,7 +17233,7 @@
       <c r="A646" t="s">
         <v>578</v>
       </c>
-      <c r="B646" s="1">
+      <c r="B646" s="3">
         <v>61.779000000000003</v>
       </c>
     </row>
@@ -17225,7 +17241,7 @@
       <c r="A647" t="s">
         <v>3</v>
       </c>
-      <c r="B647" s="1">
+      <c r="B647" s="3">
         <v>61.749000000000002</v>
       </c>
     </row>
@@ -17233,7 +17249,7 @@
       <c r="A648" t="s">
         <v>289</v>
       </c>
-      <c r="B648" s="1">
+      <c r="B648" s="3">
         <v>61.743000000000002</v>
       </c>
     </row>
@@ -17241,7 +17257,7 @@
       <c r="A649" t="s">
         <v>187</v>
       </c>
-      <c r="B649" s="1">
+      <c r="B649" s="3">
         <v>61.734999999999999</v>
       </c>
     </row>
@@ -17249,7 +17265,7 @@
       <c r="A650" t="s">
         <v>406</v>
       </c>
-      <c r="B650" s="1">
+      <c r="B650" s="3">
         <v>61.680999999999997</v>
       </c>
     </row>
@@ -17257,7 +17273,7 @@
       <c r="A651" t="s">
         <v>315</v>
       </c>
-      <c r="B651" s="1">
+      <c r="B651" s="3">
         <v>61.654000000000003</v>
       </c>
     </row>
@@ -17265,7 +17281,7 @@
       <c r="A652" t="s">
         <v>427</v>
       </c>
-      <c r="B652" s="1">
+      <c r="B652" s="3">
         <v>61.555</v>
       </c>
     </row>
@@ -17273,7 +17289,7 @@
       <c r="A653" t="s">
         <v>953</v>
       </c>
-      <c r="B653" s="1">
+      <c r="B653" s="3">
         <v>61.506999999999998</v>
       </c>
     </row>
@@ -17281,7 +17297,7 @@
       <c r="A654" t="s">
         <v>92</v>
       </c>
-      <c r="B654" s="1">
+      <c r="B654" s="3">
         <v>61.484000000000002</v>
       </c>
     </row>
@@ -17289,7 +17305,7 @@
       <c r="A655" t="s">
         <v>698</v>
       </c>
-      <c r="B655" s="1">
+      <c r="B655" s="3">
         <v>61.48</v>
       </c>
     </row>
@@ -17297,7 +17313,7 @@
       <c r="A656" t="s">
         <v>180</v>
       </c>
-      <c r="B656" s="1">
+      <c r="B656" s="3">
         <v>61.460999999999999</v>
       </c>
     </row>
@@ -17305,7 +17321,7 @@
       <c r="A657" t="s">
         <v>317</v>
       </c>
-      <c r="B657" s="1">
+      <c r="B657" s="3">
         <v>61.277999999999999</v>
       </c>
     </row>
@@ -17313,7 +17329,7 @@
       <c r="A658" t="s">
         <v>165</v>
       </c>
-      <c r="B658" s="1">
+      <c r="B658" s="3">
         <v>61.256</v>
       </c>
     </row>
@@ -17321,7 +17337,7 @@
       <c r="A659" t="s">
         <v>617</v>
       </c>
-      <c r="B659" s="1">
+      <c r="B659" s="3">
         <v>61.220999999999997</v>
       </c>
     </row>
@@ -17329,7 +17345,7 @@
       <c r="A660" t="s">
         <v>88</v>
       </c>
-      <c r="B660" s="1">
+      <c r="B660" s="3">
         <v>61.206000000000003</v>
       </c>
     </row>
@@ -17337,7 +17353,7 @@
       <c r="A661" t="s">
         <v>129</v>
       </c>
-      <c r="B661" s="1">
+      <c r="B661" s="3">
         <v>61.149000000000001</v>
       </c>
     </row>
@@ -17345,7 +17361,7 @@
       <c r="A662" t="s">
         <v>192</v>
       </c>
-      <c r="B662" s="1">
+      <c r="B662" s="3">
         <v>60.948</v>
       </c>
     </row>
@@ -17353,7 +17369,7 @@
       <c r="A663" t="s">
         <v>157</v>
       </c>
-      <c r="B663" s="1">
+      <c r="B663" s="3">
         <v>60.945</v>
       </c>
     </row>
@@ -17361,7 +17377,7 @@
       <c r="A664" t="s">
         <v>105</v>
       </c>
-      <c r="B664" s="1">
+      <c r="B664" s="3">
         <v>60.942999999999998</v>
       </c>
     </row>
@@ -17369,7 +17385,7 @@
       <c r="A665" t="s">
         <v>644</v>
       </c>
-      <c r="B665" s="1">
+      <c r="B665" s="3">
         <v>60.765999999999998</v>
       </c>
     </row>
@@ -17377,7 +17393,7 @@
       <c r="A666" t="s">
         <v>635</v>
       </c>
-      <c r="B666" s="1">
+      <c r="B666" s="3">
         <v>60.698999999999998</v>
       </c>
     </row>
@@ -17385,7 +17401,7 @@
       <c r="A667" t="s">
         <v>733</v>
       </c>
-      <c r="B667" s="1">
+      <c r="B667" s="3">
         <v>60.552</v>
       </c>
     </row>
@@ -17393,7 +17409,7 @@
       <c r="A668" t="s">
         <v>545</v>
       </c>
-      <c r="B668" s="1">
+      <c r="B668" s="3">
         <v>60.529000000000003</v>
       </c>
     </row>
@@ -17401,7 +17417,7 @@
       <c r="A669" t="s">
         <v>49</v>
       </c>
-      <c r="B669" s="1">
+      <c r="B669" s="3">
         <v>60.481000000000002</v>
       </c>
     </row>
@@ -17409,7 +17425,7 @@
       <c r="A670" t="s">
         <v>480</v>
       </c>
-      <c r="B670" s="1">
+      <c r="B670" s="3">
         <v>60.384999999999998</v>
       </c>
     </row>
@@ -17417,7 +17433,7 @@
       <c r="A671" t="s">
         <v>408</v>
       </c>
-      <c r="B671" s="1">
+      <c r="B671" s="3">
         <v>60.33</v>
       </c>
     </row>
@@ -17425,7 +17441,7 @@
       <c r="A672" t="s">
         <v>878</v>
       </c>
-      <c r="B672" s="1">
+      <c r="B672" s="3">
         <v>60.283000000000001</v>
       </c>
     </row>
@@ -17433,7 +17449,7 @@
       <c r="A673" t="s">
         <v>434</v>
       </c>
-      <c r="B673" s="1">
+      <c r="B673" s="3">
         <v>60.152999999999999</v>
       </c>
     </row>
@@ -17441,7 +17457,7 @@
       <c r="A674" t="s">
         <v>581</v>
       </c>
-      <c r="B674" s="1">
+      <c r="B674" s="3">
         <v>60.137999999999998</v>
       </c>
     </row>
@@ -17449,7 +17465,7 @@
       <c r="A675" t="s">
         <v>634</v>
       </c>
-      <c r="B675" s="1">
+      <c r="B675" s="3">
         <v>60.115000000000002</v>
       </c>
     </row>
@@ -17457,7 +17473,7 @@
       <c r="A676" t="s">
         <v>168</v>
       </c>
-      <c r="B676" s="1">
+      <c r="B676" s="3">
         <v>59.99</v>
       </c>
     </row>
@@ -17465,7 +17481,7 @@
       <c r="A677" t="s">
         <v>931</v>
       </c>
-      <c r="B677" s="1">
+      <c r="B677" s="3">
         <v>59.985999999999997</v>
       </c>
     </row>
@@ -17473,7 +17489,7 @@
       <c r="A678" t="s">
         <v>450</v>
       </c>
-      <c r="B678" s="1">
+      <c r="B678" s="3">
         <v>59.78</v>
       </c>
     </row>
@@ -17481,7 +17497,7 @@
       <c r="A679" t="s">
         <v>130</v>
       </c>
-      <c r="B679" s="1">
+      <c r="B679" s="3">
         <v>59.564999999999998</v>
       </c>
     </row>
@@ -17489,7 +17505,7 @@
       <c r="A680" t="s">
         <v>948</v>
       </c>
-      <c r="B680" s="1">
+      <c r="B680" s="3">
         <v>59.3</v>
       </c>
     </row>
@@ -17497,7 +17513,7 @@
       <c r="A681" t="s">
         <v>164</v>
       </c>
-      <c r="B681" s="1">
+      <c r="B681" s="3">
         <v>59.271000000000001</v>
       </c>
     </row>
@@ -17505,7 +17521,7 @@
       <c r="A682" t="s">
         <v>478</v>
       </c>
-      <c r="B682" s="1">
+      <c r="B682" s="3">
         <v>59.234999999999999</v>
       </c>
     </row>
@@ -17513,7 +17529,7 @@
       <c r="A683" t="s">
         <v>123</v>
       </c>
-      <c r="B683" s="1">
+      <c r="B683" s="3">
         <v>59.2</v>
       </c>
     </row>
@@ -17521,7 +17537,7 @@
       <c r="A684" t="s">
         <v>127</v>
       </c>
-      <c r="B684" s="1">
+      <c r="B684" s="3">
         <v>59.103000000000002</v>
       </c>
     </row>
@@ -17529,7 +17545,7 @@
       <c r="A685" t="s">
         <v>485</v>
       </c>
-      <c r="B685" s="1">
+      <c r="B685" s="3">
         <v>59.098999999999997</v>
       </c>
     </row>
@@ -17537,7 +17553,7 @@
       <c r="A686" t="s">
         <v>132</v>
       </c>
-      <c r="B686" s="1">
+      <c r="B686" s="3">
         <v>59.091000000000001</v>
       </c>
     </row>
@@ -17545,7 +17561,7 @@
       <c r="A687" t="s">
         <v>436</v>
       </c>
-      <c r="B687" s="1">
+      <c r="B687" s="3">
         <v>59.082999999999998</v>
       </c>
     </row>
@@ -17553,7 +17569,7 @@
       <c r="A688" t="s">
         <v>564</v>
       </c>
-      <c r="B688" s="1">
+      <c r="B688" s="3">
         <v>59.042999999999999</v>
       </c>
     </row>
@@ -17561,7 +17577,7 @@
       <c r="A689" t="s">
         <v>439</v>
       </c>
-      <c r="B689" s="1">
+      <c r="B689" s="3">
         <v>58.832999999999998</v>
       </c>
     </row>
@@ -17569,7 +17585,7 @@
       <c r="A690" t="s">
         <v>126</v>
       </c>
-      <c r="B690" s="1">
+      <c r="B690" s="3">
         <v>58.786999999999999</v>
       </c>
     </row>
@@ -17577,7 +17593,7 @@
       <c r="A691" t="s">
         <v>445</v>
       </c>
-      <c r="B691" s="1">
+      <c r="B691" s="3">
         <v>58.759</v>
       </c>
     </row>
@@ -17585,7 +17601,7 @@
       <c r="A692" t="s">
         <v>155</v>
       </c>
-      <c r="B692" s="1">
+      <c r="B692" s="3">
         <v>58.744999999999997</v>
       </c>
     </row>
@@ -17593,7 +17609,7 @@
       <c r="A693" t="s">
         <v>133</v>
       </c>
-      <c r="B693" s="1">
+      <c r="B693" s="3">
         <v>58.734999999999999</v>
       </c>
     </row>
@@ -17601,7 +17617,7 @@
       <c r="A694" t="s">
         <v>458</v>
       </c>
-      <c r="B694" s="1">
+      <c r="B694" s="3">
         <v>58.734999999999999</v>
       </c>
     </row>
@@ -17609,7 +17625,7 @@
       <c r="A695" t="s">
         <v>483</v>
       </c>
-      <c r="B695" s="1">
+      <c r="B695" s="3">
         <v>58.723999999999997</v>
       </c>
     </row>
@@ -17617,7 +17633,7 @@
       <c r="A696" t="s">
         <v>468</v>
       </c>
-      <c r="B696" s="1">
+      <c r="B696" s="3">
         <v>58.718000000000004</v>
       </c>
     </row>
@@ -17625,7 +17641,7 @@
       <c r="A697" t="s">
         <v>579</v>
       </c>
-      <c r="B697" s="1">
+      <c r="B697" s="3">
         <v>58.680999999999997</v>
       </c>
     </row>
@@ -17633,7 +17649,7 @@
       <c r="A698" t="s">
         <v>479</v>
       </c>
-      <c r="B698" s="1">
+      <c r="B698" s="3">
         <v>58.67</v>
       </c>
     </row>
@@ -17641,7 +17657,7 @@
       <c r="A699" t="s">
         <v>19</v>
       </c>
-      <c r="B699" s="1">
+      <c r="B699" s="3">
         <v>58.613</v>
       </c>
     </row>
@@ -17649,7 +17665,7 @@
       <c r="A700" t="s">
         <v>446</v>
       </c>
-      <c r="B700" s="1">
+      <c r="B700" s="3">
         <v>58.558</v>
       </c>
     </row>
@@ -17657,7 +17673,7 @@
       <c r="A701" t="s">
         <v>156</v>
       </c>
-      <c r="B701" s="1">
+      <c r="B701" s="3">
         <v>58.444000000000003</v>
       </c>
     </row>
@@ -17665,7 +17681,7 @@
       <c r="A702" t="s">
         <v>447</v>
       </c>
-      <c r="B702" s="1">
+      <c r="B702" s="3">
         <v>58.436</v>
       </c>
     </row>
@@ -17673,7 +17689,7 @@
       <c r="A703" t="s">
         <v>181</v>
       </c>
-      <c r="B703" s="1">
+      <c r="B703" s="3">
         <v>58.429000000000002</v>
       </c>
     </row>
@@ -17681,7 +17697,7 @@
       <c r="A704" t="s">
         <v>690</v>
       </c>
-      <c r="B704" s="1">
+      <c r="B704" s="3">
         <v>58.377000000000002</v>
       </c>
     </row>
@@ -17689,7 +17705,7 @@
       <c r="A705" t="s">
         <v>438</v>
       </c>
-      <c r="B705" s="1">
+      <c r="B705" s="3">
         <v>58.311</v>
       </c>
     </row>
@@ -17697,7 +17713,7 @@
       <c r="A706" t="s">
         <v>459</v>
       </c>
-      <c r="B706" s="1">
+      <c r="B706" s="3">
         <v>58.3</v>
       </c>
     </row>
@@ -17705,7 +17721,7 @@
       <c r="A707" t="s">
         <v>996</v>
       </c>
-      <c r="B707" s="1">
+      <c r="B707" s="3">
         <v>58.253</v>
       </c>
     </row>
@@ -17713,7 +17729,7 @@
       <c r="A708" t="s">
         <v>548</v>
       </c>
-      <c r="B708" s="1">
+      <c r="B708" s="3">
         <v>58.216999999999999</v>
       </c>
     </row>
@@ -17721,7 +17737,7 @@
       <c r="A709" t="s">
         <v>829</v>
       </c>
-      <c r="B709" s="1">
+      <c r="B709" s="3">
         <v>58.19</v>
       </c>
     </row>
@@ -17729,7 +17745,7 @@
       <c r="A710" t="s">
         <v>994</v>
       </c>
-      <c r="B710" s="1">
+      <c r="B710" s="3">
         <v>58.17</v>
       </c>
     </row>
@@ -17737,7 +17753,7 @@
       <c r="A711" t="s">
         <v>481</v>
       </c>
-      <c r="B711" s="1">
+      <c r="B711" s="3">
         <v>58.100999999999999</v>
       </c>
     </row>
@@ -17745,7 +17761,7 @@
       <c r="A712" t="s">
         <v>582</v>
       </c>
-      <c r="B712" s="1">
+      <c r="B712" s="3">
         <v>58.094999999999999</v>
       </c>
     </row>
@@ -17753,7 +17769,7 @@
       <c r="A713" t="s">
         <v>550</v>
       </c>
-      <c r="B713" s="1">
+      <c r="B713" s="3">
         <v>58.033000000000001</v>
       </c>
     </row>
@@ -17761,7 +17777,7 @@
       <c r="A714" t="s">
         <v>176</v>
       </c>
-      <c r="B714" s="1">
+      <c r="B714" s="3">
         <v>58.02</v>
       </c>
     </row>
@@ -17769,7 +17785,7 @@
       <c r="A715" t="s">
         <v>910</v>
       </c>
-      <c r="B715" s="1">
+      <c r="B715" s="3">
         <v>57.972999999999999</v>
       </c>
     </row>
@@ -17777,7 +17793,7 @@
       <c r="A716" t="s">
         <v>460</v>
       </c>
-      <c r="B716" s="1">
+      <c r="B716" s="3">
         <v>57.960999999999999</v>
       </c>
     </row>
@@ -17785,7 +17801,7 @@
       <c r="A717" t="s">
         <v>83</v>
       </c>
-      <c r="B717" s="1">
+      <c r="B717" s="3">
         <v>57.933999999999997</v>
       </c>
     </row>
@@ -17793,7 +17809,7 @@
       <c r="A718" t="s">
         <v>437</v>
       </c>
-      <c r="B718" s="1">
+      <c r="B718" s="3">
         <v>57.82</v>
       </c>
     </row>
@@ -17801,7 +17817,7 @@
       <c r="A719" t="s">
         <v>435</v>
       </c>
-      <c r="B719" s="1">
+      <c r="B719" s="3">
         <v>57.768999999999998</v>
       </c>
     </row>
@@ -17809,7 +17825,7 @@
       <c r="A720" t="s">
         <v>393</v>
       </c>
-      <c r="B720" s="1">
+      <c r="B720" s="3">
         <v>57.761000000000003</v>
       </c>
     </row>
@@ -17817,7 +17833,7 @@
       <c r="A721" t="s">
         <v>613</v>
       </c>
-      <c r="B721" s="1">
+      <c r="B721" s="3">
         <v>57.753999999999998</v>
       </c>
     </row>
@@ -17825,7 +17841,7 @@
       <c r="A722" t="s">
         <v>475</v>
       </c>
-      <c r="B722" s="1">
+      <c r="B722" s="3">
         <v>57.743000000000002</v>
       </c>
     </row>
@@ -17833,7 +17849,7 @@
       <c r="A723" t="s">
         <v>730</v>
       </c>
-      <c r="B723" s="1">
+      <c r="B723" s="3">
         <v>57.713999999999999</v>
       </c>
     </row>
@@ -17841,7 +17857,7 @@
       <c r="A724" t="s">
         <v>128</v>
       </c>
-      <c r="B724" s="1">
+      <c r="B724" s="3">
         <v>57.689</v>
       </c>
     </row>
@@ -17849,7 +17865,7 @@
       <c r="A725" t="s">
         <v>946</v>
       </c>
-      <c r="B725" s="1">
+      <c r="B725" s="3">
         <v>57.645000000000003</v>
       </c>
     </row>
@@ -17857,7 +17873,7 @@
       <c r="A726" t="s">
         <v>119</v>
       </c>
-      <c r="B726" s="1">
+      <c r="B726" s="3">
         <v>57.643000000000001</v>
       </c>
     </row>
@@ -17865,7 +17881,7 @@
       <c r="A727" t="s">
         <v>640</v>
       </c>
-      <c r="B727" s="1">
+      <c r="B727" s="3">
         <v>57.594000000000001</v>
       </c>
     </row>
@@ -17873,7 +17889,7 @@
       <c r="A728" t="s">
         <v>449</v>
       </c>
-      <c r="B728" s="1">
+      <c r="B728" s="3">
         <v>57.585999999999999</v>
       </c>
     </row>
@@ -17881,7 +17897,7 @@
       <c r="A729" t="s">
         <v>440</v>
       </c>
-      <c r="B729" s="1">
+      <c r="B729" s="3">
         <v>57.530999999999999</v>
       </c>
     </row>
@@ -17889,7 +17905,7 @@
       <c r="A730" t="s">
         <v>924</v>
       </c>
-      <c r="B730" s="1">
+      <c r="B730" s="3">
         <v>57.515000000000001</v>
       </c>
     </row>
@@ -17897,7 +17913,7 @@
       <c r="A731" t="s">
         <v>470</v>
       </c>
-      <c r="B731" s="1">
+      <c r="B731" s="3">
         <v>57.512</v>
       </c>
     </row>
@@ -17905,7 +17921,7 @@
       <c r="A732" t="s">
         <v>575</v>
       </c>
-      <c r="B732" s="1">
+      <c r="B732" s="3">
         <v>57.511000000000003</v>
       </c>
     </row>
@@ -17913,7 +17929,7 @@
       <c r="A733" t="s">
         <v>619</v>
       </c>
-      <c r="B733" s="1">
+      <c r="B733" s="3">
         <v>57.466000000000001</v>
       </c>
     </row>
@@ -17921,7 +17937,7 @@
       <c r="A734" t="s">
         <v>466</v>
       </c>
-      <c r="B734" s="1">
+      <c r="B734" s="3">
         <v>57.384</v>
       </c>
     </row>
@@ -17929,7 +17945,7 @@
       <c r="A735" t="s">
         <v>404</v>
       </c>
-      <c r="B735" s="1">
+      <c r="B735" s="3">
         <v>57.33</v>
       </c>
     </row>
@@ -17937,7 +17953,7 @@
       <c r="A736" t="s">
         <v>473</v>
       </c>
-      <c r="B736" s="1">
+      <c r="B736" s="3">
         <v>57.252000000000002</v>
       </c>
     </row>
@@ -17945,7 +17961,7 @@
       <c r="A737" t="s">
         <v>463</v>
       </c>
-      <c r="B737" s="1">
+      <c r="B737" s="3">
         <v>57.069000000000003</v>
       </c>
     </row>
@@ -17953,7 +17969,7 @@
       <c r="A738" t="s">
         <v>724</v>
       </c>
-      <c r="B738" s="1">
+      <c r="B738" s="3">
         <v>57.054000000000002</v>
       </c>
     </row>
@@ -17961,7 +17977,7 @@
       <c r="A739" t="s">
         <v>442</v>
       </c>
-      <c r="B739" s="1">
+      <c r="B739" s="3">
         <v>57.052999999999997</v>
       </c>
     </row>
@@ -17969,7 +17985,7 @@
       <c r="A740" t="s">
         <v>388</v>
       </c>
-      <c r="B740" s="1">
+      <c r="B740" s="3">
         <v>57.045000000000002</v>
       </c>
     </row>
@@ -17977,7 +17993,7 @@
       <c r="A741" t="s">
         <v>390</v>
       </c>
-      <c r="B741" s="1">
+      <c r="B741" s="3">
         <v>56.966999999999999</v>
       </c>
     </row>
@@ -17985,7 +18001,7 @@
       <c r="A742" t="s">
         <v>20</v>
       </c>
-      <c r="B742" s="1">
+      <c r="B742" s="3">
         <v>56.927</v>
       </c>
     </row>
@@ -17993,7 +18009,7 @@
       <c r="A743" t="s">
         <v>95</v>
       </c>
-      <c r="B743" s="1">
+      <c r="B743" s="3">
         <v>56.887999999999998</v>
       </c>
     </row>
@@ -18001,7 +18017,7 @@
       <c r="A744" t="s">
         <v>476</v>
       </c>
-      <c r="B744" s="1">
+      <c r="B744" s="3">
         <v>56.832999999999998</v>
       </c>
     </row>
@@ -18009,7 +18025,7 @@
       <c r="A745" t="s">
         <v>715</v>
       </c>
-      <c r="B745" s="1">
+      <c r="B745" s="3">
         <v>56.817</v>
       </c>
     </row>
@@ -18017,7 +18033,7 @@
       <c r="A746" t="s">
         <v>441</v>
       </c>
-      <c r="B746" s="1">
+      <c r="B746" s="3">
         <v>56.716000000000001</v>
       </c>
     </row>
@@ -18025,7 +18041,7 @@
       <c r="A747" t="s">
         <v>583</v>
       </c>
-      <c r="B747" s="1">
+      <c r="B747" s="3">
         <v>56.563000000000002</v>
       </c>
     </row>
@@ -18033,7 +18049,7 @@
       <c r="A748" t="s">
         <v>913</v>
       </c>
-      <c r="B748" s="1">
+      <c r="B748" s="3">
         <v>56.548000000000002</v>
       </c>
     </row>
@@ -18041,7 +18057,7 @@
       <c r="A749" t="s">
         <v>474</v>
       </c>
-      <c r="B749" s="1">
+      <c r="B749" s="3">
         <v>56.531999999999996</v>
       </c>
     </row>
@@ -18049,7 +18065,7 @@
       <c r="A750" t="s">
         <v>174</v>
       </c>
-      <c r="B750" s="1">
+      <c r="B750" s="3">
         <v>56.433999999999997</v>
       </c>
     </row>
@@ -18057,7 +18073,7 @@
       <c r="A751" t="s">
         <v>719</v>
       </c>
-      <c r="B751" s="1">
+      <c r="B751" s="3">
         <v>56.411999999999999</v>
       </c>
     </row>
@@ -18065,7 +18081,7 @@
       <c r="A752" t="s">
         <v>191</v>
       </c>
-      <c r="B752" s="1">
+      <c r="B752" s="3">
         <v>56.353999999999999</v>
       </c>
     </row>
@@ -18073,7 +18089,7 @@
       <c r="A753" t="s">
         <v>472</v>
       </c>
-      <c r="B753" s="1">
+      <c r="B753" s="3">
         <v>56.341999999999999</v>
       </c>
     </row>
@@ -18081,7 +18097,7 @@
       <c r="A754" t="s">
         <v>629</v>
       </c>
-      <c r="B754" s="1">
+      <c r="B754" s="3">
         <v>56.247999999999998</v>
       </c>
     </row>
@@ -18089,7 +18105,7 @@
       <c r="A755" t="s">
         <v>1001</v>
       </c>
-      <c r="B755" s="1">
+      <c r="B755" s="3">
         <v>56.222000000000001</v>
       </c>
     </row>
@@ -18097,7 +18113,7 @@
       <c r="A756" t="s">
         <v>477</v>
       </c>
-      <c r="B756" s="1">
+      <c r="B756" s="3">
         <v>56.098999999999997</v>
       </c>
     </row>
@@ -18105,7 +18121,7 @@
       <c r="A757" t="s">
         <v>135</v>
       </c>
-      <c r="B757" s="1">
+      <c r="B757" s="3">
         <v>56.06</v>
       </c>
     </row>
@@ -18113,7 +18129,7 @@
       <c r="A758" t="s">
         <v>117</v>
       </c>
-      <c r="B758" s="1">
+      <c r="B758" s="3">
         <v>55.984999999999999</v>
       </c>
     </row>
@@ -18121,7 +18137,7 @@
       <c r="A759" t="s">
         <v>919</v>
       </c>
-      <c r="B759" s="1">
+      <c r="B759" s="3">
         <v>55.88</v>
       </c>
     </row>
@@ -18129,7 +18145,7 @@
       <c r="A760" t="s">
         <v>558</v>
       </c>
-      <c r="B760" s="1">
+      <c r="B760" s="3">
         <v>55.872</v>
       </c>
     </row>
@@ -18137,7 +18153,7 @@
       <c r="A761" t="s">
         <v>433</v>
       </c>
-      <c r="B761" s="1">
+      <c r="B761" s="3">
         <v>55.83</v>
       </c>
     </row>
@@ -18145,7 +18161,7 @@
       <c r="A762" t="s">
         <v>131</v>
       </c>
-      <c r="B762" s="1">
+      <c r="B762" s="3">
         <v>55.792000000000002</v>
       </c>
     </row>
@@ -18153,7 +18169,7 @@
       <c r="A763" t="s">
         <v>112</v>
       </c>
-      <c r="B763" s="1">
+      <c r="B763" s="3">
         <v>55.753</v>
       </c>
     </row>
@@ -18161,7 +18177,7 @@
       <c r="A764" t="s">
         <v>382</v>
       </c>
-      <c r="B764" s="1">
+      <c r="B764" s="3">
         <v>55.722999999999999</v>
       </c>
     </row>
@@ -18169,7 +18185,7 @@
       <c r="A765" t="s">
         <v>306</v>
       </c>
-      <c r="B765" s="1">
+      <c r="B765" s="3">
         <v>55.692</v>
       </c>
     </row>
@@ -18177,7 +18193,7 @@
       <c r="A766" t="s">
         <v>716</v>
       </c>
-      <c r="B766" s="1">
+      <c r="B766" s="3">
         <v>55.674999999999997</v>
       </c>
     </row>
@@ -18185,7 +18201,7 @@
       <c r="A767" t="s">
         <v>444</v>
       </c>
-      <c r="B767" s="1">
+      <c r="B767" s="3">
         <v>55.670999999999999</v>
       </c>
     </row>
@@ -18193,7 +18209,7 @@
       <c r="A768" t="s">
         <v>125</v>
       </c>
-      <c r="B768" s="1">
+      <c r="B768" s="3">
         <v>55.616</v>
       </c>
     </row>
@@ -18201,7 +18217,7 @@
       <c r="A769" t="s">
         <v>547</v>
       </c>
-      <c r="B769" s="1">
+      <c r="B769" s="3">
         <v>55.561999999999998</v>
       </c>
     </row>
@@ -18209,7 +18225,7 @@
       <c r="A770" t="s">
         <v>714</v>
       </c>
-      <c r="B770" s="1">
+      <c r="B770" s="3">
         <v>55.488</v>
       </c>
     </row>
@@ -18217,7 +18233,7 @@
       <c r="A771" t="s">
         <v>1002</v>
       </c>
-      <c r="B771" s="1">
+      <c r="B771" s="3">
         <v>55.366</v>
       </c>
     </row>
@@ -18225,7 +18241,7 @@
       <c r="A772" t="s">
         <v>914</v>
       </c>
-      <c r="B772" s="1">
+      <c r="B772" s="3">
         <v>55.362000000000002</v>
       </c>
     </row>
@@ -18233,7 +18249,7 @@
       <c r="A773" t="s">
         <v>546</v>
       </c>
-      <c r="B773" s="1">
+      <c r="B773" s="3">
         <v>55.216000000000001</v>
       </c>
     </row>
@@ -18241,7 +18257,7 @@
       <c r="A774" t="s">
         <v>432</v>
       </c>
-      <c r="B774" s="1">
+      <c r="B774" s="3">
         <v>55.207000000000001</v>
       </c>
     </row>
@@ -18249,7 +18265,7 @@
       <c r="A775" t="s">
         <v>995</v>
       </c>
-      <c r="B775" s="1">
+      <c r="B775" s="3">
         <v>55.170999999999999</v>
       </c>
     </row>
@@ -18257,7 +18273,7 @@
       <c r="A776" t="s">
         <v>729</v>
       </c>
-      <c r="B776" s="1">
+      <c r="B776" s="3">
         <v>55.164999999999999</v>
       </c>
     </row>
@@ -18265,7 +18281,7 @@
       <c r="A777" t="s">
         <v>909</v>
       </c>
-      <c r="B777" s="1">
+      <c r="B777" s="3">
         <v>55.156999999999996</v>
       </c>
     </row>
@@ -18273,7 +18289,7 @@
       <c r="A778" t="s">
         <v>918</v>
       </c>
-      <c r="B778" s="1">
+      <c r="B778" s="3">
         <v>55.143999999999998</v>
       </c>
     </row>
@@ -18281,7 +18297,7 @@
       <c r="A779" t="s">
         <v>452</v>
       </c>
-      <c r="B779" s="1">
+      <c r="B779" s="3">
         <v>55.082999999999998</v>
       </c>
     </row>
@@ -18289,7 +18305,7 @@
       <c r="A780" t="s">
         <v>397</v>
       </c>
-      <c r="B780" s="1">
+      <c r="B780" s="3">
         <v>55.082000000000001</v>
       </c>
     </row>
@@ -18297,7 +18313,7 @@
       <c r="A781" t="s">
         <v>465</v>
       </c>
-      <c r="B781" s="1">
+      <c r="B781" s="3">
         <v>55.052</v>
       </c>
     </row>
@@ -18305,7 +18321,7 @@
       <c r="A782" t="s">
         <v>454</v>
       </c>
-      <c r="B782" s="1">
+      <c r="B782" s="3">
         <v>54.994999999999997</v>
       </c>
     </row>
@@ -18313,7 +18329,7 @@
       <c r="A783" t="s">
         <v>632</v>
       </c>
-      <c r="B783" s="1">
+      <c r="B783" s="3">
         <v>54.984000000000002</v>
       </c>
     </row>
@@ -18321,7 +18337,7 @@
       <c r="A784" t="s">
         <v>552</v>
       </c>
-      <c r="B784" s="1">
+      <c r="B784" s="3">
         <v>54.968000000000004</v>
       </c>
     </row>
@@ -18329,7 +18345,7 @@
       <c r="A785" t="s">
         <v>1000</v>
       </c>
-      <c r="B785" s="1">
+      <c r="B785" s="3">
         <v>54.951999999999998</v>
       </c>
     </row>
@@ -18337,7 +18353,7 @@
       <c r="A786" t="s">
         <v>394</v>
       </c>
-      <c r="B786" s="1">
+      <c r="B786" s="3">
         <v>54.905000000000001</v>
       </c>
     </row>
@@ -18345,7 +18361,7 @@
       <c r="A787" t="s">
         <v>98</v>
       </c>
-      <c r="B787" s="1">
+      <c r="B787" s="3">
         <v>54.902999999999999</v>
       </c>
     </row>
@@ -18353,7 +18369,7 @@
       <c r="A788" t="s">
         <v>725</v>
       </c>
-      <c r="B788" s="1">
+      <c r="B788" s="3">
         <v>54.898000000000003</v>
       </c>
     </row>
@@ -18361,7 +18377,7 @@
       <c r="A789" t="s">
         <v>727</v>
       </c>
-      <c r="B789" s="1">
+      <c r="B789" s="3">
         <v>54.889000000000003</v>
       </c>
     </row>
@@ -18369,7 +18385,7 @@
       <c r="A790" t="s">
         <v>917</v>
       </c>
-      <c r="B790" s="1">
+      <c r="B790" s="3">
         <v>54.868000000000002</v>
       </c>
     </row>
@@ -18377,7 +18393,7 @@
       <c r="A791" t="s">
         <v>451</v>
       </c>
-      <c r="B791" s="1">
+      <c r="B791" s="3">
         <v>54.844000000000001</v>
       </c>
     </row>
@@ -18385,7 +18401,7 @@
       <c r="A792" t="s">
         <v>134</v>
       </c>
-      <c r="B792" s="1">
+      <c r="B792" s="3">
         <v>54.829000000000001</v>
       </c>
     </row>
@@ -18393,7 +18409,7 @@
       <c r="A793" t="s">
         <v>471</v>
       </c>
-      <c r="B793" s="1">
+      <c r="B793" s="3">
         <v>54.774000000000001</v>
       </c>
     </row>
@@ -18401,7 +18417,7 @@
       <c r="A794" t="s">
         <v>907</v>
       </c>
-      <c r="B794" s="1">
+      <c r="B794" s="3">
         <v>54.771999999999998</v>
       </c>
     </row>
@@ -18409,7 +18425,7 @@
       <c r="A795" t="s">
         <v>469</v>
       </c>
-      <c r="B795" s="1">
+      <c r="B795" s="3">
         <v>54.576000000000001</v>
       </c>
     </row>
@@ -18417,7 +18433,7 @@
       <c r="A796" t="s">
         <v>457</v>
       </c>
-      <c r="B796" s="1">
+      <c r="B796" s="3">
         <v>54.529000000000003</v>
       </c>
     </row>
@@ -18425,7 +18441,7 @@
       <c r="A797" t="s">
         <v>464</v>
       </c>
-      <c r="B797" s="1">
+      <c r="B797" s="3">
         <v>54.521000000000001</v>
       </c>
     </row>
@@ -18433,7 +18449,7 @@
       <c r="A798" t="s">
         <v>717</v>
       </c>
-      <c r="B798" s="1">
+      <c r="B798" s="3">
         <v>54.482999999999997</v>
       </c>
     </row>
@@ -18441,7 +18457,7 @@
       <c r="A799" t="s">
         <v>484</v>
       </c>
-      <c r="B799" s="1">
+      <c r="B799" s="3">
         <v>54.412999999999997</v>
       </c>
     </row>
@@ -18449,7 +18465,7 @@
       <c r="A800" t="s">
         <v>997</v>
       </c>
-      <c r="B800" s="1">
+      <c r="B800" s="3">
         <v>54.393999999999998</v>
       </c>
     </row>
@@ -18457,7 +18473,7 @@
       <c r="A801" t="s">
         <v>405</v>
       </c>
-      <c r="B801" s="1">
+      <c r="B801" s="3">
         <v>54.357999999999997</v>
       </c>
     </row>
@@ -18465,7 +18481,7 @@
       <c r="A802" t="s">
         <v>623</v>
       </c>
-      <c r="B802" s="1">
+      <c r="B802" s="3">
         <v>54.356999999999999</v>
       </c>
     </row>
@@ -18473,7 +18489,7 @@
       <c r="A803" t="s">
         <v>407</v>
       </c>
-      <c r="B803" s="1">
+      <c r="B803" s="3">
         <v>54.304000000000002</v>
       </c>
     </row>
@@ -18481,7 +18497,7 @@
       <c r="A804" t="s">
         <v>114</v>
       </c>
-      <c r="B804" s="1">
+      <c r="B804" s="3">
         <v>54.212000000000003</v>
       </c>
     </row>
@@ -18489,7 +18505,7 @@
       <c r="A805" t="s">
         <v>482</v>
       </c>
-      <c r="B805" s="1">
+      <c r="B805" s="3">
         <v>54.17</v>
       </c>
     </row>
@@ -18497,7 +18513,7 @@
       <c r="A806" t="s">
         <v>389</v>
       </c>
-      <c r="B806" s="1">
+      <c r="B806" s="3">
         <v>54.162999999999997</v>
       </c>
     </row>
@@ -18505,7 +18521,7 @@
       <c r="A807" t="s">
         <v>983</v>
       </c>
-      <c r="B807" s="1">
+      <c r="B807" s="3">
         <v>54.103999999999999</v>
       </c>
     </row>
@@ -18513,7 +18529,7 @@
       <c r="A808" t="s">
         <v>402</v>
       </c>
-      <c r="B808" s="1">
+      <c r="B808" s="3">
         <v>54.088999999999999</v>
       </c>
     </row>
@@ -18521,7 +18537,7 @@
       <c r="A809" t="s">
         <v>999</v>
       </c>
-      <c r="B809" s="1">
+      <c r="B809" s="3">
         <v>54.034999999999997</v>
       </c>
     </row>
@@ -18529,7 +18545,7 @@
       <c r="A810" t="s">
         <v>713</v>
       </c>
-      <c r="B810" s="1">
+      <c r="B810" s="3">
         <v>54.015000000000001</v>
       </c>
     </row>
@@ -18537,7 +18553,7 @@
       <c r="A811" t="s">
         <v>921</v>
       </c>
-      <c r="B811" s="1">
+      <c r="B811" s="3">
         <v>54.015000000000001</v>
       </c>
     </row>
@@ -18545,7 +18561,7 @@
       <c r="A812" t="s">
         <v>912</v>
       </c>
-      <c r="B812" s="1">
+      <c r="B812" s="3">
         <v>53.988999999999997</v>
       </c>
     </row>
@@ -18553,7 +18569,7 @@
       <c r="A813" t="s">
         <v>461</v>
       </c>
-      <c r="B813" s="1">
+      <c r="B813" s="3">
         <v>53.905000000000001</v>
       </c>
     </row>
@@ -18561,7 +18577,7 @@
       <c r="A814" t="s">
         <v>916</v>
       </c>
-      <c r="B814" s="1">
+      <c r="B814" s="3">
         <v>53.895000000000003</v>
       </c>
     </row>
@@ -18569,7 +18585,7 @@
       <c r="A815" t="s">
         <v>77</v>
       </c>
-      <c r="B815" s="1">
+      <c r="B815" s="3">
         <v>53.890999999999998</v>
       </c>
     </row>
@@ -18577,7 +18593,7 @@
       <c r="A816" t="s">
         <v>544</v>
       </c>
-      <c r="B816" s="1">
+      <c r="B816" s="3">
         <v>53.863</v>
       </c>
     </row>
@@ -18585,7 +18601,7 @@
       <c r="A817" t="s">
         <v>726</v>
       </c>
-      <c r="B817" s="1">
+      <c r="B817" s="3">
         <v>53.862000000000002</v>
       </c>
     </row>
@@ -18593,7 +18609,7 @@
       <c r="A818" t="s">
         <v>400</v>
       </c>
-      <c r="B818" s="1">
+      <c r="B818" s="3">
         <v>53.786000000000001</v>
       </c>
     </row>
@@ -18601,7 +18617,7 @@
       <c r="A819" t="s">
         <v>920</v>
       </c>
-      <c r="B819" s="1">
+      <c r="B819" s="3">
         <v>53.667000000000002</v>
       </c>
     </row>
@@ -18609,7 +18625,7 @@
       <c r="A820" t="s">
         <v>385</v>
       </c>
-      <c r="B820" s="1">
+      <c r="B820" s="3">
         <v>53.642000000000003</v>
       </c>
     </row>
@@ -18617,7 +18633,7 @@
       <c r="A821" t="s">
         <v>904</v>
       </c>
-      <c r="B821" s="1">
+      <c r="B821" s="3">
         <v>53.524999999999999</v>
       </c>
     </row>
@@ -18625,7 +18641,7 @@
       <c r="A822" t="s">
         <v>908</v>
       </c>
-      <c r="B822" s="1">
+      <c r="B822" s="3">
         <v>53.518999999999998</v>
       </c>
     </row>
@@ -18633,7 +18649,7 @@
       <c r="A823" t="s">
         <v>403</v>
       </c>
-      <c r="B823" s="1">
+      <c r="B823" s="3">
         <v>53.466000000000001</v>
       </c>
     </row>
@@ -18641,7 +18657,7 @@
       <c r="A824" t="s">
         <v>906</v>
       </c>
-      <c r="B824" s="1">
+      <c r="B824" s="3">
         <v>53.421999999999997</v>
       </c>
     </row>
@@ -18649,7 +18665,7 @@
       <c r="A825" t="s">
         <v>915</v>
       </c>
-      <c r="B825" s="1">
+      <c r="B825" s="3">
         <v>53.396999999999998</v>
       </c>
     </row>
@@ -18657,7 +18673,7 @@
       <c r="A826" t="s">
         <v>392</v>
       </c>
-      <c r="B826" s="1">
+      <c r="B826" s="3">
         <v>53.387999999999998</v>
       </c>
     </row>
@@ -18665,7 +18681,7 @@
       <c r="A827" t="s">
         <v>386</v>
       </c>
-      <c r="B827" s="1">
+      <c r="B827" s="3">
         <v>53.323</v>
       </c>
     </row>
@@ -18673,7 +18689,7 @@
       <c r="A828" t="s">
         <v>387</v>
       </c>
-      <c r="B828" s="1">
+      <c r="B828" s="3">
         <v>53.320999999999998</v>
       </c>
     </row>
@@ -18681,7 +18697,7 @@
       <c r="A829" t="s">
         <v>721</v>
       </c>
-      <c r="B829" s="1">
+      <c r="B829" s="3">
         <v>53.298999999999999</v>
       </c>
     </row>
@@ -18689,7 +18705,7 @@
       <c r="A830" t="s">
         <v>723</v>
       </c>
-      <c r="B830" s="1">
+      <c r="B830" s="3">
         <v>53.137999999999998</v>
       </c>
     </row>
@@ -18697,7 +18713,7 @@
       <c r="A831" t="s">
         <v>399</v>
       </c>
-      <c r="B831" s="1">
+      <c r="B831" s="3">
         <v>53.078000000000003</v>
       </c>
     </row>
@@ -18705,7 +18721,7 @@
       <c r="A832" t="s">
         <v>998</v>
       </c>
-      <c r="B832" s="1">
+      <c r="B832" s="3">
         <v>53.073</v>
       </c>
     </row>
@@ -18713,7 +18729,7 @@
       <c r="A833" t="s">
         <v>456</v>
       </c>
-      <c r="B833" s="1">
+      <c r="B833" s="3">
         <v>53.033999999999999</v>
       </c>
     </row>
@@ -18721,7 +18737,7 @@
       <c r="A834" t="s">
         <v>313</v>
       </c>
-      <c r="B834" s="1">
+      <c r="B834" s="3">
         <v>52.97</v>
       </c>
     </row>
@@ -18729,7 +18745,7 @@
       <c r="A835" t="s">
         <v>383</v>
       </c>
-      <c r="B835" s="1">
+      <c r="B835" s="3">
         <v>52.944000000000003</v>
       </c>
     </row>
@@ -18737,7 +18753,7 @@
       <c r="A836" t="s">
         <v>448</v>
       </c>
-      <c r="B836" s="1">
+      <c r="B836" s="3">
         <v>52.893000000000001</v>
       </c>
     </row>
@@ -18745,7 +18761,7 @@
       <c r="A837" t="s">
         <v>391</v>
       </c>
-      <c r="B837" s="1">
+      <c r="B837" s="3">
         <v>52.878999999999998</v>
       </c>
     </row>
@@ -18753,7 +18769,7 @@
       <c r="A838" t="s">
         <v>75</v>
       </c>
-      <c r="B838" s="1">
+      <c r="B838" s="3">
         <v>52.805999999999997</v>
       </c>
     </row>
@@ -18761,7 +18777,7 @@
       <c r="A839" t="s">
         <v>18</v>
       </c>
-      <c r="B839" s="1">
+      <c r="B839" s="3">
         <v>52.65</v>
       </c>
     </row>
@@ -18769,7 +18785,7 @@
       <c r="A840" t="s">
         <v>923</v>
       </c>
-      <c r="B840" s="1">
+      <c r="B840" s="3">
         <v>52.625999999999998</v>
       </c>
     </row>
@@ -18777,7 +18793,7 @@
       <c r="A841" t="s">
         <v>722</v>
       </c>
-      <c r="B841" s="1">
+      <c r="B841" s="3">
         <v>52.564</v>
       </c>
     </row>
@@ -18785,7 +18801,7 @@
       <c r="A842" t="s">
         <v>312</v>
       </c>
-      <c r="B842" s="1">
+      <c r="B842" s="3">
         <v>52.552</v>
       </c>
     </row>
@@ -18793,7 +18809,7 @@
       <c r="A843" t="s">
         <v>720</v>
       </c>
-      <c r="B843" s="1">
+      <c r="B843" s="3">
         <v>52.51</v>
       </c>
     </row>
@@ -18801,7 +18817,7 @@
       <c r="A844" t="s">
         <v>122</v>
       </c>
-      <c r="B844" s="1">
+      <c r="B844" s="3">
         <v>52.488999999999997</v>
       </c>
     </row>
@@ -18809,7 +18825,7 @@
       <c r="A845" t="s">
         <v>453</v>
       </c>
-      <c r="B845" s="1">
+      <c r="B845" s="3">
         <v>52.38</v>
       </c>
     </row>
@@ -18817,7 +18833,7 @@
       <c r="A846" t="s">
         <v>731</v>
       </c>
-      <c r="B846" s="1">
+      <c r="B846" s="3">
         <v>52.323</v>
       </c>
     </row>
@@ -18825,7 +18841,7 @@
       <c r="A847" t="s">
         <v>384</v>
       </c>
-      <c r="B847" s="1">
+      <c r="B847" s="3">
         <v>52.304000000000002</v>
       </c>
     </row>
@@ -18833,7 +18849,7 @@
       <c r="A848" t="s">
         <v>557</v>
       </c>
-      <c r="B848" s="1">
+      <c r="B848" s="3">
         <v>52.149000000000001</v>
       </c>
     </row>
@@ -18841,7 +18857,7 @@
       <c r="A849" t="s">
         <v>409</v>
       </c>
-      <c r="B849" s="1">
+      <c r="B849" s="3">
         <v>52.145000000000003</v>
       </c>
     </row>
@@ -18849,7 +18865,7 @@
       <c r="A850" t="s">
         <v>549</v>
       </c>
-      <c r="B850" s="1">
+      <c r="B850" s="3">
         <v>52.124000000000002</v>
       </c>
     </row>
@@ -18857,7 +18873,7 @@
       <c r="A851" t="s">
         <v>467</v>
       </c>
-      <c r="B851" s="1">
+      <c r="B851" s="3">
         <v>52.034999999999997</v>
       </c>
     </row>
@@ -18865,7 +18881,7 @@
       <c r="A852" t="s">
         <v>902</v>
       </c>
-      <c r="B852" s="1">
+      <c r="B852" s="3">
         <v>52.021999999999998</v>
       </c>
     </row>
@@ -18873,7 +18889,7 @@
       <c r="A853" t="s">
         <v>60</v>
       </c>
-      <c r="B853" s="1">
+      <c r="B853" s="3">
         <v>51.930999999999997</v>
       </c>
     </row>
@@ -18881,7 +18897,7 @@
       <c r="A854" t="s">
         <v>443</v>
       </c>
-      <c r="B854" s="1">
+      <c r="B854" s="3">
         <v>51.847999999999999</v>
       </c>
     </row>
@@ -18889,7 +18905,7 @@
       <c r="A855" t="s">
         <v>728</v>
       </c>
-      <c r="B855" s="1">
+      <c r="B855" s="3">
         <v>51.750999999999998</v>
       </c>
     </row>
@@ -18897,7 +18913,7 @@
       <c r="A856" t="s">
         <v>401</v>
       </c>
-      <c r="B856" s="1">
+      <c r="B856" s="3">
         <v>51.704000000000001</v>
       </c>
     </row>
@@ -18905,7 +18921,7 @@
       <c r="A857" t="s">
         <v>560</v>
       </c>
-      <c r="B857" s="1">
+      <c r="B857" s="3">
         <v>51.652999999999999</v>
       </c>
     </row>
@@ -18913,7 +18929,7 @@
       <c r="A858" t="s">
         <v>551</v>
       </c>
-      <c r="B858" s="1">
+      <c r="B858" s="3">
         <v>51.600999999999999</v>
       </c>
     </row>
@@ -18921,7 +18937,7 @@
       <c r="A859" t="s">
         <v>93</v>
       </c>
-      <c r="B859" s="1">
+      <c r="B859" s="3">
         <v>51.52</v>
       </c>
     </row>
@@ -18929,7 +18945,7 @@
       <c r="A860" t="s">
         <v>933</v>
       </c>
-      <c r="B860" s="1">
+      <c r="B860" s="3">
         <v>51.274999999999999</v>
       </c>
     </row>
@@ -18937,7 +18953,7 @@
       <c r="A861" t="s">
         <v>559</v>
       </c>
-      <c r="B861" s="1">
+      <c r="B861" s="3">
         <v>51.209000000000003</v>
       </c>
     </row>
@@ -18945,7 +18961,7 @@
       <c r="A862" t="s">
         <v>922</v>
       </c>
-      <c r="B862" s="1">
+      <c r="B862" s="3">
         <v>51.067999999999998</v>
       </c>
     </row>
@@ -18953,7 +18969,7 @@
       <c r="A863" t="s">
         <v>903</v>
       </c>
-      <c r="B863" s="1">
+      <c r="B863" s="3">
         <v>51.012999999999998</v>
       </c>
     </row>
@@ -18961,7 +18977,7 @@
       <c r="A864" t="s">
         <v>905</v>
       </c>
-      <c r="B864" s="1">
+      <c r="B864" s="3">
         <v>50.517000000000003</v>
       </c>
     </row>
@@ -18969,7 +18985,7 @@
       <c r="A865" t="s">
         <v>395</v>
       </c>
-      <c r="B865" s="1">
+      <c r="B865" s="3">
         <v>50.314999999999998</v>
       </c>
     </row>
@@ -18977,7 +18993,7 @@
       <c r="A866" t="s">
         <v>285</v>
       </c>
-      <c r="B866" s="1">
+      <c r="B866" s="3">
         <v>50.13</v>
       </c>
     </row>
@@ -18985,7 +19001,7 @@
       <c r="A867" t="s">
         <v>925</v>
       </c>
-      <c r="B867" s="1">
+      <c r="B867" s="3">
         <v>50.033000000000001</v>
       </c>
     </row>
@@ -18993,7 +19009,7 @@
       <c r="A868" t="s">
         <v>82</v>
       </c>
-      <c r="B868" s="1">
+      <c r="B868" s="3">
         <v>49.866</v>
       </c>
     </row>
@@ -19001,7 +19017,7 @@
       <c r="A869" t="s">
         <v>718</v>
       </c>
-      <c r="B869" s="1">
+      <c r="B869" s="3">
         <v>49.658000000000001</v>
       </c>
     </row>
@@ -19009,7 +19025,7 @@
       <c r="A870" t="s">
         <v>732</v>
       </c>
-      <c r="B870" s="1">
+      <c r="B870" s="3">
         <v>49.53</v>
       </c>
     </row>
@@ -19017,7 +19033,7 @@
       <c r="A871" t="s">
         <v>911</v>
       </c>
-      <c r="B871" s="1">
+      <c r="B871" s="3">
         <v>49.44</v>
       </c>
     </row>
@@ -19025,7 +19041,7 @@
       <c r="A872" t="s">
         <v>555</v>
       </c>
-      <c r="B872" s="1">
+      <c r="B872" s="3">
         <v>49.386000000000003</v>
       </c>
     </row>
@@ -19033,7 +19049,7 @@
       <c r="A873" t="s">
         <v>381</v>
       </c>
-      <c r="B873" s="1">
+      <c r="B873" s="3">
         <v>49.036999999999999</v>
       </c>
     </row>
@@ -19041,7 +19057,7 @@
       <c r="A874" t="s">
         <v>310</v>
       </c>
-      <c r="B874" s="1">
+      <c r="B874" s="3">
         <v>48.97</v>
       </c>
     </row>
@@ -19049,7 +19065,7 @@
       <c r="A875" t="s">
         <v>307</v>
       </c>
-      <c r="B875" s="1">
+      <c r="B875" s="3">
         <v>48.828000000000003</v>
       </c>
     </row>
@@ -19057,7 +19073,7 @@
       <c r="A876" t="s">
         <v>94</v>
       </c>
-      <c r="B876" s="1">
+      <c r="B876" s="3">
         <v>48.8</v>
       </c>
     </row>
@@ -19065,7 +19081,7 @@
       <c r="A877" t="s">
         <v>151</v>
       </c>
-      <c r="B877" s="1">
+      <c r="B877" s="3">
         <v>47.146000000000001</v>
       </c>
     </row>
@@ -19073,7 +19089,7 @@
       <c r="A878" t="s">
         <v>116</v>
       </c>
-      <c r="B878" s="1">
+      <c r="B878" s="3">
         <v>46.813000000000002</v>
       </c>
     </row>
@@ -19081,7 +19097,7 @@
       <c r="A879" t="s">
         <v>161</v>
       </c>
-      <c r="B879" s="1">
+      <c r="B879" s="3">
         <v>45.384999999999998</v>
       </c>
     </row>
@@ -19089,7 +19105,7 @@
       <c r="A880" t="s">
         <v>290</v>
       </c>
-      <c r="B880" s="1">
+      <c r="B880" s="3">
         <v>45.235999999999997</v>
       </c>
     </row>
@@ -19097,7 +19113,7 @@
       <c r="A881" t="s">
         <v>293</v>
       </c>
-      <c r="B881" s="1">
+      <c r="B881" s="3">
         <v>44.747999999999998</v>
       </c>
     </row>
@@ -19105,7 +19121,7 @@
       <c r="A882" t="s">
         <v>596</v>
       </c>
-      <c r="B882" s="1">
+      <c r="B882" s="3">
         <v>44.436999999999998</v>
       </c>
     </row>
@@ -19113,7 +19129,7 @@
       <c r="A883" t="s">
         <v>949</v>
       </c>
-      <c r="B883" s="1">
+      <c r="B883" s="3">
         <v>44.305999999999997</v>
       </c>
     </row>
@@ -19121,7 +19137,7 @@
       <c r="A884" t="s">
         <v>971</v>
       </c>
-      <c r="B884" s="1">
+      <c r="B884" s="3">
         <v>44.223999999999997</v>
       </c>
     </row>
@@ -19129,7 +19145,7 @@
       <c r="A885" t="s">
         <v>633</v>
       </c>
-      <c r="B885" s="1">
+      <c r="B885" s="3">
         <v>44.128</v>
       </c>
     </row>
@@ -19137,7 +19153,7 @@
       <c r="A886" t="s">
         <v>298</v>
       </c>
-      <c r="B886" s="1">
+      <c r="B886" s="3">
         <v>43.694000000000003</v>
       </c>
     </row>
@@ -19145,7 +19161,7 @@
       <c r="A887" t="s">
         <v>821</v>
       </c>
-      <c r="B887" s="1">
+      <c r="B887" s="3">
         <v>43.274999999999999</v>
       </c>
     </row>
@@ -19153,7 +19169,7 @@
       <c r="A888" t="s">
         <v>288</v>
       </c>
-      <c r="B888" s="1">
+      <c r="B888" s="3">
         <v>43.176000000000002</v>
       </c>
     </row>
@@ -19161,7 +19177,7 @@
       <c r="A889" t="s">
         <v>292</v>
       </c>
-      <c r="B889" s="1">
+      <c r="B889" s="3">
         <v>43.064</v>
       </c>
     </row>
@@ -19169,7 +19185,7 @@
       <c r="A890" t="s">
         <v>160</v>
       </c>
-      <c r="B890" s="1">
+      <c r="B890" s="3">
         <v>42.424999999999997</v>
       </c>
     </row>
@@ -19177,7 +19193,7 @@
       <c r="A891" t="s">
         <v>645</v>
       </c>
-      <c r="B891" s="1">
+      <c r="B891" s="3">
         <v>42.417000000000002</v>
       </c>
     </row>
@@ -19185,7 +19201,7 @@
       <c r="A892" t="s">
         <v>597</v>
       </c>
-      <c r="B892" s="1">
+      <c r="B892" s="3">
         <v>41.863</v>
       </c>
     </row>
@@ -19193,7 +19209,7 @@
       <c r="A893" t="s">
         <v>282</v>
       </c>
-      <c r="B893" s="1">
+      <c r="B893" s="3">
         <v>41.323</v>
       </c>
     </row>
@@ -19201,7 +19217,7 @@
       <c r="A894" t="s">
         <v>154</v>
       </c>
-      <c r="B894" s="1">
+      <c r="B894" s="3">
         <v>40.204000000000001</v>
       </c>
     </row>
@@ -19209,7 +19225,7 @@
       <c r="A895" t="s">
         <v>637</v>
       </c>
-      <c r="B895" s="1">
+      <c r="B895" s="3">
         <v>39.493000000000002</v>
       </c>
     </row>
@@ -19217,7 +19233,7 @@
       <c r="A896" t="s">
         <v>1008</v>
       </c>
-      <c r="B896" s="1">
+      <c r="B896" s="3">
         <v>39.445</v>
       </c>
     </row>
@@ -19225,7 +19241,7 @@
       <c r="A897" t="s">
         <v>58</v>
       </c>
-      <c r="B897" s="1">
+      <c r="B897" s="3">
         <v>38.777999999999999</v>
       </c>
     </row>
@@ -19233,7 +19249,7 @@
       <c r="A898" t="s">
         <v>198</v>
       </c>
-      <c r="B898" s="1">
+      <c r="B898" s="3">
         <v>38.393999999999998</v>
       </c>
     </row>
@@ -19241,7 +19257,7 @@
       <c r="A899" t="s">
         <v>291</v>
       </c>
-      <c r="B899" s="1">
+      <c r="B899" s="3">
         <v>38.052999999999997</v>
       </c>
     </row>
@@ -19249,7 +19265,7 @@
       <c r="A900" t="s">
         <v>206</v>
       </c>
-      <c r="B900" s="1">
+      <c r="B900" s="3">
         <v>37.076000000000001</v>
       </c>
     </row>
@@ -19257,7 +19273,7 @@
       <c r="A901" t="s">
         <v>928</v>
       </c>
-      <c r="B901" s="1">
+      <c r="B901" s="3">
         <v>37.033000000000001</v>
       </c>
     </row>
@@ -19265,7 +19281,7 @@
       <c r="A902" t="s">
         <v>300</v>
       </c>
-      <c r="B902" s="1">
+      <c r="B902" s="3">
         <v>36.969000000000001</v>
       </c>
     </row>
@@ -19273,7 +19289,7 @@
       <c r="A903" t="s">
         <v>148</v>
       </c>
-      <c r="B903" s="1">
+      <c r="B903" s="3">
         <v>36.133000000000003</v>
       </c>
     </row>
@@ -19281,7 +19297,7 @@
       <c r="A904" t="s">
         <v>299</v>
       </c>
-      <c r="B904" s="1">
+      <c r="B904" s="3">
         <v>35.875</v>
       </c>
     </row>
@@ -19289,7 +19305,7 @@
       <c r="A905" t="s">
         <v>286</v>
       </c>
-      <c r="B905" s="1">
+      <c r="B905" s="3">
         <v>35.744999999999997</v>
       </c>
     </row>
@@ -19297,7 +19313,7 @@
       <c r="A906" t="s">
         <v>16</v>
       </c>
-      <c r="B906" s="1">
+      <c r="B906" s="3">
         <v>35.252000000000002</v>
       </c>
     </row>
@@ -19305,7 +19321,7 @@
       <c r="A907" t="s">
         <v>195</v>
       </c>
-      <c r="B907" s="1">
+      <c r="B907" s="3">
         <v>34.375999999999998</v>
       </c>
     </row>
@@ -19313,7 +19329,7 @@
       <c r="A908" t="s">
         <v>958</v>
       </c>
-      <c r="B908" s="1">
+      <c r="B908" s="3">
         <v>34.313000000000002</v>
       </c>
     </row>
@@ -19321,7 +19337,7 @@
       <c r="A909" t="s">
         <v>177</v>
       </c>
-      <c r="B909" s="1">
+      <c r="B909" s="3">
         <v>33.997</v>
       </c>
     </row>
@@ -19329,7 +19345,7 @@
       <c r="A910" t="s">
         <v>620</v>
       </c>
-      <c r="B910" s="1">
+      <c r="B910" s="3">
         <v>33.911000000000001</v>
       </c>
     </row>
@@ -19337,7 +19353,7 @@
       <c r="A911" t="s">
         <v>68</v>
       </c>
-      <c r="B911" s="1">
+      <c r="B911" s="3">
         <v>33.877000000000002</v>
       </c>
     </row>
@@ -19345,7 +19361,7 @@
       <c r="A912" t="s">
         <v>297</v>
       </c>
-      <c r="B912" s="1">
+      <c r="B912" s="3">
         <v>33.296999999999997</v>
       </c>
     </row>
@@ -19353,7 +19369,7 @@
       <c r="A913" t="s">
         <v>296</v>
       </c>
-      <c r="B913" s="1">
+      <c r="B913" s="3">
         <v>33.271999999999998</v>
       </c>
     </row>
@@ -19361,7 +19377,7 @@
       <c r="A914" t="s">
         <v>970</v>
       </c>
-      <c r="B914" s="1">
+      <c r="B914" s="3">
         <v>33.195</v>
       </c>
     </row>
@@ -19369,7 +19385,7 @@
       <c r="A915" t="s">
         <v>316</v>
       </c>
-      <c r="B915" s="1">
+      <c r="B915" s="3">
         <v>33.19</v>
       </c>
     </row>
@@ -19377,7 +19393,7 @@
       <c r="A916" t="s">
         <v>967</v>
       </c>
-      <c r="B916" s="1">
+      <c r="B916" s="3">
         <v>32.674999999999997</v>
       </c>
     </row>
@@ -19385,7 +19401,7 @@
       <c r="A917" t="s">
         <v>279</v>
       </c>
-      <c r="B917" s="1">
+      <c r="B917" s="3">
         <v>32.155000000000001</v>
       </c>
     </row>
@@ -19393,7 +19409,7 @@
       <c r="A918" t="s">
         <v>937</v>
       </c>
-      <c r="B918" s="1">
+      <c r="B918" s="3">
         <v>31.584</v>
       </c>
     </row>
@@ -19401,7 +19417,7 @@
       <c r="A919" t="s">
         <v>113</v>
       </c>
-      <c r="B919" s="1">
+      <c r="B919" s="3">
         <v>31.539000000000001</v>
       </c>
     </row>
@@ -19409,7 +19425,7 @@
       <c r="A920" t="s">
         <v>671</v>
       </c>
-      <c r="B920" s="1">
+      <c r="B920" s="3">
         <v>31.216999999999999</v>
       </c>
     </row>
@@ -19417,7 +19433,7 @@
       <c r="A921" t="s">
         <v>935</v>
       </c>
-      <c r="B921" s="1">
+      <c r="B921" s="3">
         <v>30.696999999999999</v>
       </c>
     </row>
@@ -19425,7 +19441,7 @@
       <c r="A922" t="s">
         <v>71</v>
       </c>
-      <c r="B922" s="1">
+      <c r="B922" s="3">
         <v>30.364999999999998</v>
       </c>
     </row>
@@ -19433,7 +19449,7 @@
       <c r="A923" t="s">
         <v>982</v>
       </c>
-      <c r="B923" s="1">
+      <c r="B923" s="3">
         <v>30.283999999999999</v>
       </c>
     </row>
@@ -19441,7 +19457,7 @@
       <c r="A924" t="s">
         <v>110</v>
       </c>
-      <c r="B924" s="1">
+      <c r="B924" s="3">
         <v>30.074000000000002</v>
       </c>
     </row>
@@ -19449,7 +19465,7 @@
       <c r="A925" t="s">
         <v>957</v>
       </c>
-      <c r="B925" s="1">
+      <c r="B925" s="3">
         <v>30.007000000000001</v>
       </c>
     </row>
@@ -19457,7 +19473,7 @@
       <c r="A926" t="s">
         <v>186</v>
       </c>
-      <c r="B926" s="1">
+      <c r="B926" s="3">
         <v>29.533999999999999</v>
       </c>
     </row>
@@ -19465,7 +19481,7 @@
       <c r="A927" t="s">
         <v>283</v>
       </c>
-      <c r="B927" s="1">
+      <c r="B927" s="3">
         <v>29.263000000000002</v>
       </c>
     </row>
@@ -19473,7 +19489,7 @@
       <c r="A928" t="s">
         <v>966</v>
       </c>
-      <c r="B928" s="1">
+      <c r="B928" s="3">
         <v>29.199000000000002</v>
       </c>
     </row>
@@ -19481,7 +19497,7 @@
       <c r="A929" t="s">
         <v>51</v>
       </c>
-      <c r="B929" s="1">
+      <c r="B929" s="3">
         <v>28.494</v>
       </c>
     </row>
@@ -19489,7 +19505,7 @@
       <c r="A930" t="s">
         <v>956</v>
       </c>
-      <c r="B930" s="1">
+      <c r="B930" s="3">
         <v>28.454000000000001</v>
       </c>
     </row>
@@ -19497,7 +19513,7 @@
       <c r="A931" t="s">
         <v>61</v>
       </c>
-      <c r="B931" s="1">
+      <c r="B931" s="3">
         <v>28.151</v>
       </c>
     </row>
@@ -19505,7 +19521,7 @@
       <c r="A932" t="s">
         <v>804</v>
       </c>
-      <c r="B932" s="1">
+      <c r="B932" s="3">
         <v>27.946000000000002</v>
       </c>
     </row>
@@ -19513,7 +19529,7 @@
       <c r="A933" t="s">
         <v>614</v>
       </c>
-      <c r="B933" s="1">
+      <c r="B933" s="3">
         <v>27.859000000000002</v>
       </c>
     </row>
@@ -19521,7 +19537,7 @@
       <c r="A934" t="s">
         <v>764</v>
       </c>
-      <c r="B934" s="1">
+      <c r="B934" s="3">
         <v>27.227</v>
       </c>
     </row>
@@ -19529,7 +19545,7 @@
       <c r="A935" t="s">
         <v>57</v>
       </c>
-      <c r="B935" s="1">
+      <c r="B935" s="3">
         <v>27.123000000000001</v>
       </c>
     </row>
@@ -19537,7 +19553,7 @@
       <c r="A936" t="s">
         <v>64</v>
       </c>
-      <c r="B936" s="1">
+      <c r="B936" s="3">
         <v>27.021000000000001</v>
       </c>
     </row>
@@ -19545,7 +19561,7 @@
       <c r="A937" t="s">
         <v>70</v>
       </c>
-      <c r="B937" s="1">
+      <c r="B937" s="3">
         <v>26.728999999999999</v>
       </c>
     </row>
@@ -19553,7 +19569,7 @@
       <c r="A938" t="s">
         <v>295</v>
       </c>
-      <c r="B938" s="1">
+      <c r="B938" s="3">
         <v>26.690999999999999</v>
       </c>
     </row>
@@ -19561,7 +19577,7 @@
       <c r="A939" t="s">
         <v>175</v>
       </c>
-      <c r="B939" s="1">
+      <c r="B939" s="3">
         <v>26.408999999999999</v>
       </c>
     </row>
@@ -19569,7 +19585,7 @@
       <c r="A940" t="s">
         <v>104</v>
       </c>
-      <c r="B940" s="1">
+      <c r="B940" s="3">
         <v>26.38</v>
       </c>
     </row>
@@ -19577,7 +19593,7 @@
       <c r="A941" t="s">
         <v>66</v>
       </c>
-      <c r="B941" s="1">
+      <c r="B941" s="3">
         <v>26.263999999999999</v>
       </c>
     </row>
@@ -19585,7 +19601,7 @@
       <c r="A942" t="s">
         <v>969</v>
       </c>
-      <c r="B942" s="1">
+      <c r="B942" s="3">
         <v>26.231000000000002</v>
       </c>
     </row>
@@ -19593,7 +19609,7 @@
       <c r="A943" t="s">
         <v>39</v>
       </c>
-      <c r="B943" s="1">
+      <c r="B943" s="3">
         <v>25.643000000000001</v>
       </c>
     </row>
@@ -19601,7 +19617,7 @@
       <c r="A944" t="s">
         <v>979</v>
       </c>
-      <c r="B944" s="1">
+      <c r="B944" s="3">
         <v>25.620999999999999</v>
       </c>
     </row>
@@ -19609,7 +19625,7 @@
       <c r="A945" t="s">
         <v>993</v>
       </c>
-      <c r="B945" s="1">
+      <c r="B945" s="3">
         <v>25.466000000000001</v>
       </c>
     </row>
@@ -19617,7 +19633,7 @@
       <c r="A946" t="s">
         <v>67</v>
       </c>
-      <c r="B946" s="1">
+      <c r="B946" s="3">
         <v>24.914000000000001</v>
       </c>
     </row>
@@ -19625,7 +19641,7 @@
       <c r="A947" t="s">
         <v>985</v>
       </c>
-      <c r="B947" s="1">
+      <c r="B947" s="3">
         <v>24.491</v>
       </c>
     </row>
@@ -19633,7 +19649,7 @@
       <c r="A948" t="s">
         <v>63</v>
       </c>
-      <c r="B948" s="1">
+      <c r="B948" s="3">
         <v>24.483000000000001</v>
       </c>
     </row>
@@ -19641,7 +19657,7 @@
       <c r="A949" t="s">
         <v>146</v>
       </c>
-      <c r="B949" s="1">
+      <c r="B949" s="3">
         <v>24.416</v>
       </c>
     </row>
@@ -19649,7 +19665,7 @@
       <c r="A950" t="s">
         <v>74</v>
       </c>
-      <c r="B950" s="1">
+      <c r="B950" s="3">
         <v>24.353000000000002</v>
       </c>
     </row>
@@ -19657,7 +19673,7 @@
       <c r="A951" t="s">
         <v>142</v>
       </c>
-      <c r="B951" s="1">
+      <c r="B951" s="3">
         <v>24.091000000000001</v>
       </c>
     </row>
@@ -19665,7 +19681,7 @@
       <c r="A952" t="s">
         <v>1004</v>
       </c>
-      <c r="B952" s="1">
+      <c r="B952" s="3">
         <v>23.975999999999999</v>
       </c>
     </row>
@@ -19673,7 +19689,7 @@
       <c r="A953" t="s">
         <v>43</v>
       </c>
-      <c r="B953" s="1">
+      <c r="B953" s="3">
         <v>23.742000000000001</v>
       </c>
     </row>
@@ -19681,7 +19697,7 @@
       <c r="A954" t="s">
         <v>798</v>
       </c>
-      <c r="B954" s="1">
+      <c r="B954" s="3">
         <v>23.704000000000001</v>
       </c>
     </row>
@@ -19689,7 +19705,7 @@
       <c r="A955" t="s">
         <v>45</v>
       </c>
-      <c r="B955" s="1">
+      <c r="B955" s="3">
         <v>23.701000000000001</v>
       </c>
     </row>
@@ -19697,7 +19713,7 @@
       <c r="A956" t="s">
         <v>73</v>
       </c>
-      <c r="B956" s="1">
+      <c r="B956" s="3">
         <v>23.687000000000001</v>
       </c>
     </row>
@@ -19705,7 +19721,7 @@
       <c r="A957" t="s">
         <v>936</v>
       </c>
-      <c r="B957" s="1">
+      <c r="B957" s="3">
         <v>23.573</v>
       </c>
     </row>
@@ -19713,7 +19729,7 @@
       <c r="A958" t="s">
         <v>50</v>
       </c>
-      <c r="B958" s="1">
+      <c r="B958" s="3">
         <v>23.388999999999999</v>
       </c>
     </row>
@@ -19721,7 +19737,7 @@
       <c r="A959" t="s">
         <v>178</v>
       </c>
-      <c r="B959" s="1">
+      <c r="B959" s="3">
         <v>23.309000000000001</v>
       </c>
     </row>
@@ -19729,7 +19745,7 @@
       <c r="A960" t="s">
         <v>139</v>
       </c>
-      <c r="B960" s="1">
+      <c r="B960" s="3">
         <v>23.047000000000001</v>
       </c>
     </row>
@@ -19737,7 +19753,7 @@
       <c r="A961" t="s">
         <v>974</v>
       </c>
-      <c r="B961" s="1">
+      <c r="B961" s="3">
         <v>22.952000000000002</v>
       </c>
     </row>
@@ -19745,7 +19761,7 @@
       <c r="A962" t="s">
         <v>973</v>
       </c>
-      <c r="B962" s="1">
+      <c r="B962" s="3">
         <v>22.835999999999999</v>
       </c>
     </row>
@@ -19753,7 +19769,7 @@
       <c r="A963" t="s">
         <v>1011</v>
       </c>
-      <c r="B963" s="1">
+      <c r="B963" s="3">
         <v>22.832999999999998</v>
       </c>
     </row>
@@ -19761,7 +19777,7 @@
       <c r="A964" t="s">
         <v>964</v>
       </c>
-      <c r="B964" s="1">
+      <c r="B964" s="3">
         <v>22.805</v>
       </c>
     </row>
@@ -19769,7 +19785,7 @@
       <c r="A965" t="s">
         <v>989</v>
       </c>
-      <c r="B965" s="1">
+      <c r="B965" s="3">
         <v>22.736000000000001</v>
       </c>
     </row>
@@ -19777,7 +19793,7 @@
       <c r="A966" t="s">
         <v>598</v>
       </c>
-      <c r="B966" s="1">
+      <c r="B966" s="3">
         <v>22.670999999999999</v>
       </c>
     </row>
@@ -19785,7 +19801,7 @@
       <c r="A967" t="s">
         <v>210</v>
       </c>
-      <c r="B967" s="1">
+      <c r="B967" s="3">
         <v>22.664000000000001</v>
       </c>
     </row>
@@ -19793,7 +19809,7 @@
       <c r="A968" t="s">
         <v>699</v>
       </c>
-      <c r="B968" s="1">
+      <c r="B968" s="3">
         <v>22.297000000000001</v>
       </c>
     </row>
@@ -19801,7 +19817,7 @@
       <c r="A969" t="s">
         <v>136</v>
       </c>
-      <c r="B969" s="1">
+      <c r="B969" s="3">
         <v>22.120999999999999</v>
       </c>
     </row>
@@ -19809,7 +19825,7 @@
       <c r="A970" t="s">
         <v>40</v>
       </c>
-      <c r="B970" s="1">
+      <c r="B970" s="3">
         <v>22.097999999999999</v>
       </c>
     </row>
@@ -19817,7 +19833,7 @@
       <c r="A971" t="s">
         <v>48</v>
       </c>
-      <c r="B971" s="1">
+      <c r="B971" s="3">
         <v>21.861999999999998</v>
       </c>
     </row>
@@ -19825,7 +19841,7 @@
       <c r="A972" t="s">
         <v>55</v>
       </c>
-      <c r="B972" s="1">
+      <c r="B972" s="3">
         <v>21.795000000000002</v>
       </c>
     </row>
@@ -19833,7 +19849,7 @@
       <c r="A973" t="s">
         <v>1005</v>
       </c>
-      <c r="B973" s="1">
+      <c r="B973" s="3">
         <v>21.690999999999999</v>
       </c>
     </row>
@@ -19841,7 +19857,7 @@
       <c r="A974" t="s">
         <v>56</v>
       </c>
-      <c r="B974" s="1">
+      <c r="B974" s="3">
         <v>21.626999999999999</v>
       </c>
     </row>
@@ -19849,7 +19865,7 @@
       <c r="A975" t="s">
         <v>54</v>
       </c>
-      <c r="B975" s="1">
+      <c r="B975" s="3">
         <v>21.623999999999999</v>
       </c>
     </row>
@@ -19857,7 +19873,7 @@
       <c r="A976" t="s">
         <v>140</v>
       </c>
-      <c r="B976" s="1">
+      <c r="B976" s="3">
         <v>21.515000000000001</v>
       </c>
     </row>
@@ -19865,7 +19881,7 @@
       <c r="A977" t="s">
         <v>205</v>
       </c>
-      <c r="B977" s="1">
+      <c r="B977" s="3">
         <v>21.474</v>
       </c>
     </row>
@@ -19873,7 +19889,7 @@
       <c r="A978" t="s">
         <v>62</v>
       </c>
-      <c r="B978" s="1">
+      <c r="B978" s="3">
         <v>21.460999999999999</v>
       </c>
     </row>
@@ -19881,7 +19897,7 @@
       <c r="A979" t="s">
         <v>990</v>
       </c>
-      <c r="B979" s="1">
+      <c r="B979" s="3">
         <v>20.786000000000001</v>
       </c>
     </row>
@@ -19889,7 +19905,7 @@
       <c r="A980" t="s">
         <v>1010</v>
       </c>
-      <c r="B980" s="1">
+      <c r="B980" s="3">
         <v>20.762</v>
       </c>
     </row>
@@ -19897,7 +19913,7 @@
       <c r="A981" t="s">
         <v>141</v>
       </c>
-      <c r="B981" s="1">
+      <c r="B981" s="3">
         <v>20.756</v>
       </c>
     </row>
@@ -19905,7 +19921,7 @@
       <c r="A982" t="s">
         <v>250</v>
       </c>
-      <c r="B982" s="1">
+      <c r="B982" s="3">
         <v>20.562999999999999</v>
       </c>
     </row>
@@ -19913,7 +19929,7 @@
       <c r="A983" t="s">
         <v>978</v>
       </c>
-      <c r="B983" s="1">
+      <c r="B983" s="3">
         <v>20.405000000000001</v>
       </c>
     </row>
@@ -19921,7 +19937,7 @@
       <c r="A984" t="s">
         <v>203</v>
       </c>
-      <c r="B984" s="1">
+      <c r="B984" s="3">
         <v>20.228000000000002</v>
       </c>
     </row>
@@ -19929,7 +19945,7 @@
       <c r="A985" t="s">
         <v>954</v>
       </c>
-      <c r="B985" s="1">
+      <c r="B985" s="3">
         <v>20.216999999999999</v>
       </c>
     </row>
@@ -19937,7 +19953,7 @@
       <c r="A986" t="s">
         <v>138</v>
       </c>
-      <c r="B986" s="1">
+      <c r="B986" s="3">
         <v>20.152000000000001</v>
       </c>
     </row>
@@ -19945,7 +19961,7 @@
       <c r="A987" t="s">
         <v>975</v>
       </c>
-      <c r="B987" s="1">
+      <c r="B987" s="3">
         <v>20.061</v>
       </c>
     </row>
@@ -19953,7 +19969,7 @@
       <c r="A988" t="s">
         <v>144</v>
       </c>
-      <c r="B988" s="1">
+      <c r="B988" s="3">
         <v>20.059999999999999</v>
       </c>
     </row>
@@ -19961,7 +19977,7 @@
       <c r="A989" t="s">
         <v>961</v>
       </c>
-      <c r="B989" s="1">
+      <c r="B989" s="3">
         <v>19.684999999999999</v>
       </c>
     </row>
@@ -19969,7 +19985,7 @@
       <c r="A990" t="s">
         <v>145</v>
       </c>
-      <c r="B990" s="1">
+      <c r="B990" s="3">
         <v>19.530999999999999</v>
       </c>
     </row>
@@ -19977,7 +19993,7 @@
       <c r="A991" t="s">
         <v>988</v>
       </c>
-      <c r="B991" s="1">
+      <c r="B991" s="3">
         <v>19.166</v>
       </c>
     </row>
@@ -19985,7 +20001,7 @@
       <c r="A992" t="s">
         <v>952</v>
       </c>
-      <c r="B992" s="1">
+      <c r="B992" s="3">
         <v>18.940999999999999</v>
       </c>
     </row>
@@ -19993,7 +20009,7 @@
       <c r="A993" t="s">
         <v>955</v>
       </c>
-      <c r="B993" s="1">
+      <c r="B993" s="3">
         <v>18.927</v>
       </c>
     </row>
@@ -20001,7 +20017,7 @@
       <c r="A994" t="s">
         <v>986</v>
       </c>
-      <c r="B994" s="1">
+      <c r="B994" s="3">
         <v>18.532</v>
       </c>
     </row>
@@ -20009,7 +20025,7 @@
       <c r="A995" t="s">
         <v>599</v>
       </c>
-      <c r="B995" s="1">
+      <c r="B995" s="3">
         <v>18.459</v>
       </c>
     </row>
@@ -20017,7 +20033,7 @@
       <c r="A996" t="s">
         <v>255</v>
       </c>
-      <c r="B996" s="1">
+      <c r="B996" s="3">
         <v>18.227</v>
       </c>
     </row>
@@ -20025,7 +20041,7 @@
       <c r="A997" t="s">
         <v>143</v>
       </c>
-      <c r="B997" s="1">
+      <c r="B997" s="3">
         <v>18.190000000000001</v>
       </c>
     </row>
@@ -20033,7 +20049,7 @@
       <c r="A998" t="s">
         <v>977</v>
       </c>
-      <c r="B998" s="1">
+      <c r="B998" s="3">
         <v>17.879000000000001</v>
       </c>
     </row>
@@ -20041,7 +20057,7 @@
       <c r="A999" t="s">
         <v>976</v>
       </c>
-      <c r="B999" s="1">
+      <c r="B999" s="3">
         <v>17.550999999999998</v>
       </c>
     </row>
@@ -20049,7 +20065,7 @@
       <c r="A1000" t="s">
         <v>945</v>
       </c>
-      <c r="B1000" s="1">
+      <c r="B1000" s="3">
         <v>17.41</v>
       </c>
     </row>
@@ -20057,7 +20073,7 @@
       <c r="A1001" t="s">
         <v>788</v>
       </c>
-      <c r="B1001" s="1">
+      <c r="B1001" s="3">
         <v>16.855</v>
       </c>
     </row>
@@ -20065,7 +20081,7 @@
       <c r="A1002" t="s">
         <v>984</v>
       </c>
-      <c r="B1002" s="1">
+      <c r="B1002" s="3">
         <v>16.584</v>
       </c>
     </row>
@@ -20073,7 +20089,7 @@
       <c r="A1003" t="s">
         <v>249</v>
       </c>
-      <c r="B1003" s="1">
+      <c r="B1003" s="3">
         <v>15.199</v>
       </c>
     </row>
@@ -20081,7 +20097,7 @@
       <c r="A1004" t="s">
         <v>253</v>
       </c>
-      <c r="B1004" s="1">
+      <c r="B1004" s="3">
         <v>14.775</v>
       </c>
     </row>
@@ -20089,7 +20105,7 @@
       <c r="A1005" t="s">
         <v>252</v>
       </c>
-      <c r="B1005" s="1">
+      <c r="B1005" s="3">
         <v>14.644</v>
       </c>
     </row>
@@ -20097,7 +20113,7 @@
       <c r="A1006" t="s">
         <v>669</v>
       </c>
-      <c r="B1006" s="1">
+      <c r="B1006" s="3">
         <v>12.72</v>
       </c>
     </row>
@@ -20105,7 +20121,7 @@
       <c r="A1007" t="s">
         <v>254</v>
       </c>
-      <c r="B1007" s="1">
+      <c r="B1007" s="3">
         <v>12.457000000000001</v>
       </c>
     </row>
@@ -20113,7 +20129,7 @@
       <c r="A1008" t="s">
         <v>991</v>
       </c>
-      <c r="B1008" s="1">
+      <c r="B1008" s="3">
         <v>11.468</v>
       </c>
     </row>
@@ -20121,7 +20137,7 @@
       <c r="A1009" t="s">
         <v>251</v>
       </c>
-      <c r="B1009" s="1">
+      <c r="B1009" s="3">
         <v>10.367000000000001</v>
       </c>
     </row>
@@ -20129,7 +20145,7 @@
       <c r="A1010" t="s">
         <v>1003</v>
       </c>
-      <c r="B1010" s="1">
+      <c r="B1010" s="3">
         <v>2.4830000000000001</v>
       </c>
     </row>
@@ -20137,7 +20153,7 @@
       <c r="A1011" t="s">
         <v>1009</v>
       </c>
-      <c r="B1011" s="1">
+      <c r="B1011" s="3">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -20145,7 +20161,7 @@
       <c r="A1012" t="s">
         <v>1007</v>
       </c>
-      <c r="B1012" s="1">
+      <c r="B1012" s="3">
         <v>0.67200000000000004</v>
       </c>
     </row>
@@ -20153,7 +20169,7 @@
       <c r="A1013" t="s">
         <v>1006</v>
       </c>
-      <c r="B1013" s="1">
+      <c r="B1013" s="3">
         <v>0.55800000000000005</v>
       </c>
     </row>
